--- a/blog_automatic_posting.xlsx
+++ b/blog_automatic_posting.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,27 +437,104 @@
           <t>best_review</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>온방바닥에 실밥 천지고 실밥정리가 전혀안되있어요 털어봐도 어디서나오는지 계속나와요 ㅠ
-허리띠는 짧아서 쓸수도 없어요
-ㅠ</t>
+          <t>https://link.coupang.com/a/cmgjus</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>http://thumbnail7.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/065f/32cfe83ec2d5f60dd258b5d5e109abc004e5ebaafe3e72064ff23e7ab855.jpg</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>빠른 배송 감사합니다
+인터넷 쇼핑으로 의류를 구매하고 실망한 경험이 있었는데 만족합니다
+사진과 같은 품질입니다
+원래 95를 입는데 100 사이즈가 저한테는 잘 맞습니다
+가볍고 몸에 잘 맞고 겨드랑이부터 옆구리까지 매쉬 원단으로 통풍이 좋습니다
+마감도 좋고 제품의 완성도도 좋아요
+주머니도 깊어서 실용적이예요
+방수기능은 아직 확인치 못했고 스판 기능은 없습니다
+지퍼도 부드럽고 가벼운 운동이나 산책할때 입기에는 실망시키지안는 제품입니다
+강추합니다
+많이 파시고 대박나세요</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>모렉스 남성 포르테 바람막이 모자 분리형 등산복 잠바 작업복 점퍼 자켓, 239_회색, 100</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>온방바닥에 실밥 천지고 실밥정리가 전혀안되있어요 털어봐도 어디서나오는지 계속나와요 ㅠ
-허리띠는 짧아서 쓸수도 없어요
-ㅠ</t>
+          <t>https://link.coupang.com/a/cmgjvF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>http://thumbnail10.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/f946/97b84ec7d4b48c3b6fa58a9dbf36fb7c41c152cf18eada1c4f565c6248c1.jpg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>사용 후 솔직히 느낀대로 남겨봅니다!
+구매 시 도움 되셨으면 좋겠습니다^^
+** 나중에 재구매할 때 보기 위해서 최대한 꼼꼼히 적어둡니다. 다른분들에게 구매 시 도움 되셨으면 하는 바램 입니다 **
+주문일 24.11.14
+배송일 24.11.14
+●구매당시금액 2 8 2 0 0
+*구매사유
+아직 겨울이 오기전이라 기모 들어간 옷만 너무 많은거 같아서 편하게 막 입을 옷을 찾다가 이곳저곳 활용하기 좋아보여 바로 구매했습니다.
+*장점
+피부에 직접 닿기 때문에 제일 중요한 소재,디자인,활용도 순을 중점으로 보는데 우선 디자인이 마음에 들어 구매했습니다.
+비닐포장으로 왔고 전체적으로 마감,오염등 없이 잘 도착했습니다!
+까슬거리거나 상표 등 거슬리는것은 없었습니다.
+재질은 만지면 바스락 거리는 소리가 나고 , 냄새는 나지 않았습니다!
+다만 실밥들이 좀 붙어 있었는데 툭툭 털면 떨어지는 정도 였습니다!
+목부분의 지퍼는 부드럽게 잘 올라오고 내려가서 상황에 따라서 조절하면 될 듯 합니다!
+앞에 주머니는 꽤 깊어서 너무 무거운 물건을 넣으면 배가 부각되어보일거 같아서 간단히 카드,이어폰 등 넣기 좋을 듯 합니다.
+가운데 하단에는 조일 수 있게 되어 있는데 제 체형에는 조이지 않고 그냥 입는게 보기에도 좋고 편할꺼 같습니다!
+하의는 현재 70키로 정도 나가고 , 하체에 살이 많은 타입인데
+어제 검정 L-XL로 구매 했었는데 날씬해 보여 만족해서
+한사이즈 업해서 베이지 색상으로 또! 구매 했습니다.
+L 사이즈와 비교했을 때 우선 상의는 확실히 넉넉했고 , 손목에 시보리도 남아서 손을 걷어봤을 때 널럴해서 잘 여며서 넘기는게 아니라면 스르륵 풀려서 내려올 정도 였습니다!
+하의는 앉았다 일어났을 때 전~혀 불편함 없이 움직일 수 있어서 좋았습니다. 자주 손이 갈꺼 같습니다^^!
+아직 세탁,건조기 돌려보지는 않았는데 혹시 건조기까지 사용해서 줄어드는 상황이 오면 상품평에 추가해두겠습니다~!
+두께가 적당히 얇지도 두껍지도 않아서 날씨가 지금보다는 조금 더 추워지면 패딩조끼와 같이 잘 활용해서 입을 수 있을 듯 합니다!
+*단점
+하루차이로 한사이즈 업해서 다른색상 구매했는데 금액이 올랐습니다 ㅠㅠ
+내돈내산으로 제 상품평이 도움이 되셨다면 도움돼요 한번 부탁드립니다~^^</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>잘빠진 여성용 어반 아노락 반집업 조거 상하의 세트, S~M, 카키</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
+        <is>
+          <t>https://link.coupang.com/a/cmgjww</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>http://thumbnail10.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/9b89/ad8bbbf576af4ccf68b42d755e0223480f32ca1b1c5535c862c042243e9f.JPG</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>깔끔하고 아주편하게 입기 좋아요.
 컬러도 너무마음에들고 전반적으로 디자인이 아주깔끔해요,
@@ -468,9 +545,24 @@
 심지어가격도 너무나 착해서 부담없더라구요.</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>여성 바람막이 아웃도어 등산복 자켓, 핑크, 2XL</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
+        <is>
+          <t>https://link.coupang.com/a/cmgjxy</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/ba8c/78a259c7231dc46f31f8e905dbed70e232a7641595ee1de0dbde944dfac6.jpg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>민트스쿨 남성용 아웃도어 등산복 바람막이, 진그레이 5XL를 구매했어요. 남편이 체구가 있는 편이라 5XL 사이즈를 선택했는데, 정말 잘 맞더라고요. 색상은 호불호가 없는 진한 그레이라서 어떤 옷과도 잘 어울리고, 남편도 마음에 들어 했어요.
 이 바람막이는 소매 주머니 지퍼 부분이 정말 견고하게 만들어져 있어서 보통 저렴한 제품에서 느껴지는 싼 티가 나지 않아요. 주머니 지퍼가 튼튼하게 잘 작동하고, 디자인도 깔끔해서 실용성이 높아요. 남편이 자주 외출할 때 필요한 아이템이라 더욱 신경 써서 고른 것인데, 이렇게 만족스러운 제품을 찾게 되어 기쁘네요.
@@ -480,121 +572,63 @@
 이번에 구입한 아웃도어 바람막이는 색상과 디자인, 기능성 모두 만족스러운 제품이에요. 주름 문제는 조금 아쉽지만, 전체적인 만족도는 높아서 잘 입고 다니고 있어요.</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>민트스쿨 남성용 아웃도어 등산복 바람막이, 블랙, 3XL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>바람막이가 있긴한데....색상도 그렇고 크기고 제게 좀 큰거라서
-잘 안입게 되더라구요...저는 원래 타이트하게 딱 입는 스탈이고
-깔끔한걸 좋아해요~~
-이번에 일교차가 큰 나라로 여행을 가게 되어 바람막이가
-있는지 봤는데 제가 마음에 드는 옷이 없어 찾아보게 되었어요~
-여러 사이트도 비교해보고 봄, 가을에 입을수 있는...부담이 없는
-막 입을 정도로의 옷을 찾아보고 있었는데요.
-그 중에 디자인이나 성능이나 가성비....브랜드 모두 만족시켜주는
-바람막이가 바로 &lt;몽벨 남성 웜테크 트랙 자켓&gt;이었어요!!!
-일단 바람막이니깐 역할은 보온을 해주면서도 바람을 피해 갈 수
-있는 정도면 될 것 같았는데 몽벨 트랙자켓은 등 부분에 얇은 기모?처럼 되어 있어 덥지도 춥지도 않게 온도를 유지시켜 줄수
-있는 자켓이었습니다.
-또한 막 휘날리고 이런 소재가 아니라 어느정도 각을 잡아주는
-봄에 입으면 딱 이쁜 그런 자켓이었어요~~역할은 바람막이지만
-디자인은 또 자켓이고 완전 이쁜 그 자체였습니다^^
-겉감은 물을 튕겨내는 발수 기능이 있어 비가 오는 날에도 끄덕없이 편하게 입을수 있고, 땀과 습기를 수증기 형태로 배출하는 투습 기능도 있다고 합니다.
-등산이나 외출복에도 안성맞춤일 것 같구요.
-색상은 문안하게 블랙으로 했는데 입으니깐 영롱하게 너무 멋져서
-잘 샀다고 생각했어요 ㅋㅋㅋ
-일반 바람막이보다는 자켓형태로 되어 있다보니 무게가 조금 더
-나가는것 같고, 봄, 여름, 초겨울에도 입을수 있는 광범위하게
-디자인이 되어 있어 완전 만족하면서 입을려구요!!!
-봄에는 셔츠나 라운드티에 입어도 되고 조금 춥다고 생각되면
-그 위에 경량 베스트 하나 입고 마지막에 자켓을 입으면 딱일것
-같다는 생각이 드네요~~~
-바깥쪽 메인 지펴를 올리게 되면 그 외부에 플라켓 처리가 되어있어 단추로 딱 잠그면 지퍼 사이로 들어오는 바람을 최소화
-시켜주어 체온 유지에 도움을 주는것 같습니다.
-또한 마음에 들었던게 손목 밑단에 밴딩 처리를 하여 편안한
-착용감과 활동성을 강화시켜 주어 너무 좋았어요~~
-흘러내리지도 않고 옷맵시를 딱 잡아주어 멋져보였어요!
-앞쪽에 몽벨 브랜드 로고도 심플하게 처리 되어 있고 와펜도
-부착되어 있어 밋밋할 수 있는 바람막이를 특징있게 살려낸것도
-포인트인거 같아요~^^
-블랙 자켓이다보니 팬츠도 블랙으로 깔맞춤하게 되면 러닝할때나
-등산할때나 일상복으로도 충분히 깔끔하게 입을수 있는 바람막인거 같아서 자주 입게 될 것 같아요.
-제가 M(95)와 L(100)사이즈를 엄청 고민했었는데요.
-어깨가 조금 좁고 소매통도 작아 95를 선택해봤는데 완전
-깔맞춤이었습니다! 사이즈가 딱 맞아서 너무 기뻣어요~
-바람막이 역할이 많이 있지만 디자인은 자켓형태라서 너무
-헐거워 보이면 좀 멋없을것 같아 95했는데 예상적중했네요!
-다만...상품 페이지에는 제조국이 베트남이었는데,
-막상 제품 안쪽 라벨에는 제조국이 중국이네요...
-그게 좀 실망스럽긴 하지만....나머지 부분인 바람막이의 역할,
-기능성, 활동성, 브랜드 이미지, 가성비 측면 등 모든 부분이
-만족되어 기쁘게 입을려고 합니다~~~
-구매시 제조국에 조금 예민하신 분들은 참고 부탁드립니다...
-이상 내돈내산 솔직한 후기였으며,
-구매시 긴 후기가 도움이 되셨다면 &lt;&lt;도움이 돼요&gt;&gt;버튼을
-눌러주시면 솔직한 후기 작성에 힘이 날 것 같습니다^^
-감사합니다. 좋은 하루 되세요^______^</t>
+          <t>https://link.coupang.com/a/cmgjy5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>http://thumbnail7.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/169b/897ec8656a9c0c399c29cd115b71b0726531590881750add0905a15891c7.jpg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>잘 받았습니다.
+퀄리티가 너무 좋아서 특별히 착용 소감을 적어봤습니다.
+더 많은 친구들이 이 겨울 자켓을 구매할 수 있기를 바랍니다.
+이 겨울 재킷을 처음 입었을 때 사방에 감싸인 포근함이 순간적으로 온몸에 훈훈한 온기가 느껴졌습니다.
+저는 아웃도어 활동과 자동차 여행을 즐기는 사람으로서 실용적이면서도 편안한 외투가 여행에서 얼마나 중요한지 잘 알고 있습니다.
+이 재킷은 외부에 바람막이 원단을 사용함으로써 방풍,방수 효과가 뛰어나며 그로인해 방한과보온성 또한 뛰어납니다.
+이 재킷은 마치 제 개인 보호막처럼 빗물이 때려도 안으로 전혀 스며들지 않아 항상 건조하고 편안함을 유지시켜 줍니다.
+눈내리는날 우산없이 눈내리는 풍경을 마음껏 즐길 수 있을겁니다.
+그리고 그 방풍기능은 더욱 절 감탄하게 합니다.
+찬바람이 부는 겨울날에도 따뜻한 온기가 나를 감싸고 있는 것을 느낄 수 있습니다.
+마치 따뜻한 품에 안겨 있는 것 같습니다.
+창문을 열고 운전할 때도 이 재킷은 역시나 훌륭합니다.
+재킷의 커팅 디자인이 매우 인간적이며, 큰 사이즈의 선택이 내 체형에 완벽하게 맞아떨어져서 운전석에서 아무런 구속 없이 자유롭게 움직일 수 있게 해줍니다.
+또한 가벼운 소재와 스크레치 방지 기능으로 장시간 주행 후에도 의류가 손상되거나 주행 안전에 지장을 줄 염려 없이 산뜻하고 편안함을 유지시켜 줍니다.
+더욱 놀라운 것은 이 재킷의 디자인이 매우 스타일리시하다는 것입니다.
+단순히 실용적인 아웃도어 아이템이 아니라 전체적인 이미지를 높일 수 있는 패션 아이템입니다.
+캐주얼 팬츠나 청바지에 코디하기에도 부담 없이 다양한 장소를 소화할 수 있어 아웃도어 생활과 일상생활에서도 자신감과 멋을 유지할 수 있습니다.
+이제 저는 거의 매일 이 옷을 입고 이 추운 겨울을 함께 할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>남자패딩 등산 코트 빅사이즈 바람막이 아웃도어자켓 방한 아우터 방수 방풍 보드복 겨울 스키복, 다크그레이 dark..., S</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>바람막이가 있긴한데....색상도 그렇고 크기고 제게 좀 큰거라서
-잘 안입게 되더라구요...저는 원래 타이트하게 딱 입는 스탈이고
-깔끔한걸 좋아해요~~
-이번에 일교차가 큰 나라로 여행을 가게 되어 바람막이가
-있는지 봤는데 제가 마음에 드는 옷이 없어 찾아보게 되었어요~
-여러 사이트도 비교해보고 봄, 가을에 입을수 있는...부담이 없는
-막 입을 정도로의 옷을 찾아보고 있었는데요.
-그 중에 디자인이나 성능이나 가성비....브랜드 모두 만족시켜주는
-바람막이가 바로 &lt;몽벨 남성 웜테크 트랙 자켓&gt;이었어요!!!
-일단 바람막이니깐 역할은 보온을 해주면서도 바람을 피해 갈 수
-있는 정도면 될 것 같았는데 몽벨 트랙자켓은 등 부분에 얇은 기모?처럼 되어 있어 덥지도 춥지도 않게 온도를 유지시켜 줄수
-있는 자켓이었습니다.
-또한 막 휘날리고 이런 소재가 아니라 어느정도 각을 잡아주는
-봄에 입으면 딱 이쁜 그런 자켓이었어요~~역할은 바람막이지만
-디자인은 또 자켓이고 완전 이쁜 그 자체였습니다^^
-겉감은 물을 튕겨내는 발수 기능이 있어 비가 오는 날에도 끄덕없이 편하게 입을수 있고, 땀과 습기를 수증기 형태로 배출하는 투습 기능도 있다고 합니다.
-등산이나 외출복에도 안성맞춤일 것 같구요.
-색상은 문안하게 블랙으로 했는데 입으니깐 영롱하게 너무 멋져서
-잘 샀다고 생각했어요 ㅋㅋㅋ
-일반 바람막이보다는 자켓형태로 되어 있다보니 무게가 조금 더
-나가는것 같고, 봄, 여름, 초겨울에도 입을수 있는 광범위하게
-디자인이 되어 있어 완전 만족하면서 입을려구요!!!
-봄에는 셔츠나 라운드티에 입어도 되고 조금 춥다고 생각되면
-그 위에 경량 베스트 하나 입고 마지막에 자켓을 입으면 딱일것
-같다는 생각이 드네요~~~
-바깥쪽 메인 지펴를 올리게 되면 그 외부에 플라켓 처리가 되어있어 단추로 딱 잠그면 지퍼 사이로 들어오는 바람을 최소화
-시켜주어 체온 유지에 도움을 주는것 같습니다.
-또한 마음에 들었던게 손목 밑단에 밴딩 처리를 하여 편안한
-착용감과 활동성을 강화시켜 주어 너무 좋았어요~~
-흘러내리지도 않고 옷맵시를 딱 잡아주어 멋져보였어요!
-앞쪽에 몽벨 브랜드 로고도 심플하게 처리 되어 있고 와펜도
-부착되어 있어 밋밋할 수 있는 바람막이를 특징있게 살려낸것도
-포인트인거 같아요~^^
-블랙 자켓이다보니 팬츠도 블랙으로 깔맞춤하게 되면 러닝할때나
-등산할때나 일상복으로도 충분히 깔끔하게 입을수 있는 바람막인거 같아서 자주 입게 될 것 같아요.
-제가 M(95)와 L(100)사이즈를 엄청 고민했었는데요.
-어깨가 조금 좁고 소매통도 작아 95를 선택해봤는데 완전
-깔맞춤이었습니다! 사이즈가 딱 맞아서 너무 기뻣어요~
-바람막이 역할이 많이 있지만 디자인은 자켓형태라서 너무
-헐거워 보이면 좀 멋없을것 같아 95했는데 예상적중했네요!
-다만...상품 페이지에는 제조국이 베트남이었는데,
-막상 제품 안쪽 라벨에는 제조국이 중국이네요...
-그게 좀 실망스럽긴 하지만....나머지 부분인 바람막이의 역할,
-기능성, 활동성, 브랜드 이미지, 가성비 측면 등 모든 부분이
-만족되어 기쁘게 입을려고 합니다~~~
-구매시 제조국에 조금 예민하신 분들은 참고 부탁드립니다...
-이상 내돈내산 솔직한 후기였으며,
-구매시 긴 후기가 도움이 되셨다면 &lt;&lt;도움이 돼요&gt;&gt;버튼을
-눌러주시면 솔직한 후기 작성에 힘이 날 것 같습니다^^
-감사합니다. 좋은 하루 되세요^______^</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+          <t>https://link.coupang.com/a/cmgjBD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>http://thumbnail7.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/2a27/f75c9f3bf68a4c3fec9b6fc75d14d6d7bd11d247085aead2de23ec3a7489.jpg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>✨maomaodian바람막이 등산복 점퍼 남성 방수 아웃도어 봄 가을 탈부착 J1
 ✔️세 가지 컬러
@@ -623,9 +657,24 @@
 ⭕️재 후기가 도움이 되었다면‘도움이 돼요‘를 꾸욱 눌러주세요.</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>maomaodian바람막이 등산복 점퍼 남성 방수 아웃도어 봄 가을 탈부착 J1, 블랙, L(95)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://link.coupang.com/a/cmgjC7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/2448/4ab510406faa34aa4307bac3697ff868cd0cd59d78f8a7369b3b98b89e20.jpg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>남편이 저녁때 조금 쌀쌀할 때 입을만한 옷 필요하다고 구매해달라고 해서 구매하게 되었답니당~^^♡
 검정색 회색 카키색 있는데 회색이 젤 무난해보이더라구요.
@@ -661,21 +710,55 @@
 진짜 이쁜옷 잘 산듯 해요.</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>맨하트 춘추 아웃도어 자켓 등산복 일상복 작업복 빅사이즈 MHWF-59, 100, 블랙</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://link.coupang.com/a/cmgjD7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/a91c/9e3d33d7cdb1dce0bae29598b4c2acd0a7f7ca170087fc6e59da70ef2751.jpg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>작업복으로 입으려고 구매했습니다. 가랭이부분,엉덩이 부분,허리 부분, 지퍼 부분이 특히 중요한데요 박음질이 엉망입니다. 같은 사이즈인데 바지밑단의 넓이와 길이가 다릅니다. 일하다 가랭이나 엉덩이부분 터질까봐 걱정이네요.
+재질,디자인은 마음에 듭니다. 박음질 견고하고 깔끔하게 좀 만들어주세요.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>워킹맨 아울렛 남성 1+1 봄 가을 시즌 다용도 멀티 스판 캠핑바지 낚시복 작업복 근무복 캠핑복 B128, 카키색+카키색, 34</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>빠른 배송 감사합니다
-인터넷 쇼핑으로 의류를 구매하고 실망한 경험이 있었는데 만족합니다
-사진과 같은 품질입니다
-원래 95를 입는데 100 사이즈가 저한테는 잘 맞습니다
-가볍고 몸에 잘 맞고 겨드랑이부터 옆구리까지 매쉬 원단으로 통풍이 좋습니다
-마감도 좋고 제품의 완성도도 좋아요
-주머니도 깊어서 실용적이예요
-방수기능은 아직 확인치 못했고 스판 기능은 없습니다
-지퍼도 부드럽고 가벼운 운동이나 산책할때 입기에는 실망시키지안는 제품입니다
-강추합니다
-많이 파시고 대박나세요</t>
+          <t>https://link.coupang.com/a/cmggzt</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/a91c/9e3d33d7cdb1dce0bae29598b4c2acd0a7f7ca170087fc6e59da70ef2751.jpg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>작업복으로 입으려고 구매했습니다. 가랭이부분,엉덩이 부분,허리 부분, 지퍼 부분이 특히 중요한데요 박음질이 엉망입니다. 같은 사이즈인데 바지밑단의 넓이와 길이가 다릅니다. 일하다 가랭이나 엉덩이부분 터질까봐 걱정이네요.
+재질,디자인은 마음에 듭니다. 박음질 견고하고 깔끔하게 좀 만들어주세요.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>워킹맨 아울렛 남성 1+1 봄 가을 시즌 다용도 멀티 스판 캠핑바지 낚시복 작업복 근무복 캠핑복 B128, 카키색+카키색, 34</t>
         </is>
       </c>
     </row>

--- a/blog_automatic_posting.xlsx
+++ b/blog_automatic_posting.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>img_path</t>
+          <t>img_src</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -440,241 +440,255 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>title</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>contnet</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://link.coupang.com/a/cmgjus</t>
+          <t>https://link.coupang.com/a/cnENbn</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://thumbnail7.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/065f/32cfe83ec2d5f60dd258b5d5e109abc004e5ebaafe3e72064ff23e7ab855.jpg</t>
+          <t>http://thumbnail10.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/f946/97b84ec7d4b48c3b6fa58a9dbf36fb7c41c152cf18eada1c4f565c6248c1.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>빠른 배송 감사합니다
-인터넷 쇼핑으로 의류를 구매하고 실망한 경험이 있었는데 만족합니다
-사진과 같은 품질입니다
-원래 95를 입는데 100 사이즈가 저한테는 잘 맞습니다
-가볍고 몸에 잘 맞고 겨드랑이부터 옆구리까지 매쉬 원단으로 통풍이 좋습니다
-마감도 좋고 제품의 완성도도 좋아요
-주머니도 깊어서 실용적이예요
-방수기능은 아직 확인치 못했고 스판 기능은 없습니다
-지퍼도 부드럽고 가벼운 운동이나 산책할때 입기에는 실망시키지안는 제품입니다
-강추합니다
-많이 파시고 대박나세요</t>
+          <t>작년에 블랙으로 구매했었는데 만족해서 베이지 색상으로
+또 구매했어요.
+✳️ 상품명
+잘빠진 여성용 어반 아노락 반집업 조거 상하의 세트,
+S~M 베이지
+✳️ 구매날짜
+2025년 4월 2일
+✳️ 특징
+✔️ 나일론 100% 바스락 소재로 가벼운 착용감
+✔️ 허리 밴딩으로 하루종일 편안한 착용감
+✔️ 상의 스트링으로 체형에 맞게 조절 가능
+✔️ 상의, 하의 단독으로 착용 가능
+작년에 블랙으로 구매했었는데 운동복으로도 잘 입었고
+일상복으로도 잘 입었어요.
+세탁 후에 건조기로 건조해도 옷감 손상도 없었구요.
+옷이 정말 가벼워서 좋더라구요.
+다만, 상의가 많이 크게 나온거에 비해 키가 156 인 저에게도
+하의 길이는 너무 딱 맞는다 할까요?
+너무 길지 않아서 저는 딱 좋았는데 마르고 키가 크신
+분들에게는 살짝 짧을 수도 있을 것 같아요.
+이번에는 인기 색상인 베이지 색상으로 샀는데 환하니
+요새 봄에 입기 딱 너무 예쁜 색상 입니다.
+베이지 색상은 외출용으로 편하게 입으려고 구매한거라
+색상도 너무 맘에 듭니다.
+사진처럼 안에 흰티 레이어드 해서 입음 더 예쁠 것 같아요.
+옷의 바느질이나 마감도 문제 없었고 깔끔하네요.
+카키색상이랑 고민했는데 베이지 색상이 밝아서 예뻐요.
+블랙이랑 번갈아 입을 생각하니 너무 좋아요ㅎㅎ
+외출복 문제 없을 것 같아요.
+외출복, 운동복으로도 만족해서 추천 드립니다.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>모렉스 남성 포르테 바람막이 모자 분리형 등산복 잠바 작업복 점퍼 자켓, 239_회색, 100</t>
+          <t>잘빠진 여성용 어반 아노락 반집업 조거 상하의 세트, S~M, 카키</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1. 편안한 착용감, 스타일리시
+잘빠진 여성용 어반 아노락 반집업 조거 상하의 세트는 편안한 착용감과 스타일리시함을 동시에 제공합니다. 나일론 100%의 바스락 소재로 제작되어 가벼운 착용감을 느낄 수 있으며, 허리 밴딩 디자인 덕분에 하루 종일 편안하게 입을 수 있습니다. 상의의 스트링으로 체형에 맞게 조절할 수 있어 다양한 체형에도 잘 어울립니다. 일상복과 운동복으로 모두 잘 활용할 수 있어 실용적이며, 세탁 후에도 손상 없이 유지되는 내구성 역시 돋보입니다. 베이지 색상은 봄철에 어울리는 밝고 화사한 느낌을 주어 외출 시에도 스타일을 완성해 줍니다. 이렇게 편안하면서도 세련된 디자인은 여러 상황에서 만족감을 주어, 누구에게나 추천하고 싶은 아이템입니다.
+2. 데일리 &amp; 운동 필수 아이템
+데일리와 운동을 모두 소화할 수 있는 필수 아이템으로 여성용 어반 아노락 반집업 조거 상하의 세트를 추천합니다. 가벼운 나일론 100% 소재로 제작되어 바스락거리는 착용감이 일상에서 편안함을 제공합니다. 허리 밴딩과 상의의 스트링 조절 기능 덕분에 체형에 맞춰 입을 수 있어 더욱 실용적입니다. 세트는 별도로도 활용 가능해 다양한 스타일링이 가능합니다. 특히 지난해 블랙 컬러에 이어 인기 베이지 컬러로 추가 구매한 고객은 봄철 산뜻한 분위기를 원하며, 외출복으로도 완벽하다고 평가했습니다. 운동복과 일상복을 모두 만족시키는 이 세트는 편안함과 스타일을 동시에 추구하는 분들에게 안성맞춤입니다.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://link.coupang.com/a/cmgjvF</t>
+          <t>https://link.coupang.com/a/cnENdr</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://thumbnail10.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/f946/97b84ec7d4b48c3b6fa58a9dbf36fb7c41c152cf18eada1c4f565c6248c1.jpg</t>
+          <t>http://thumbnail10.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/7dae/e7edbae24635da6cbb94ff38c67fae93a23bb154cd2d71875b92733f6d77.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>사용 후 솔직히 느낀대로 남겨봅니다!
-구매 시 도움 되셨으면 좋겠습니다^^
-** 나중에 재구매할 때 보기 위해서 최대한 꼼꼼히 적어둡니다. 다른분들에게 구매 시 도움 되셨으면 하는 바램 입니다 **
-주문일 24.11.14
-배송일 24.11.14
-●구매당시금액 2 8 2 0 0
-*구매사유
-아직 겨울이 오기전이라 기모 들어간 옷만 너무 많은거 같아서 편하게 막 입을 옷을 찾다가 이곳저곳 활용하기 좋아보여 바로 구매했습니다.
-*장점
-피부에 직접 닿기 때문에 제일 중요한 소재,디자인,활용도 순을 중점으로 보는데 우선 디자인이 마음에 들어 구매했습니다.
-비닐포장으로 왔고 전체적으로 마감,오염등 없이 잘 도착했습니다!
-까슬거리거나 상표 등 거슬리는것은 없었습니다.
-재질은 만지면 바스락 거리는 소리가 나고 , 냄새는 나지 않았습니다!
-다만 실밥들이 좀 붙어 있었는데 툭툭 털면 떨어지는 정도 였습니다!
-목부분의 지퍼는 부드럽게 잘 올라오고 내려가서 상황에 따라서 조절하면 될 듯 합니다!
-앞에 주머니는 꽤 깊어서 너무 무거운 물건을 넣으면 배가 부각되어보일거 같아서 간단히 카드,이어폰 등 넣기 좋을 듯 합니다.
-가운데 하단에는 조일 수 있게 되어 있는데 제 체형에는 조이지 않고 그냥 입는게 보기에도 좋고 편할꺼 같습니다!
-하의는 현재 70키로 정도 나가고 , 하체에 살이 많은 타입인데
-어제 검정 L-XL로 구매 했었는데 날씬해 보여 만족해서
-한사이즈 업해서 베이지 색상으로 또! 구매 했습니다.
-L 사이즈와 비교했을 때 우선 상의는 확실히 넉넉했고 , 손목에 시보리도 남아서 손을 걷어봤을 때 널럴해서 잘 여며서 넘기는게 아니라면 스르륵 풀려서 내려올 정도 였습니다!
-하의는 앉았다 일어났을 때 전~혀 불편함 없이 움직일 수 있어서 좋았습니다. 자주 손이 갈꺼 같습니다^^!
-아직 세탁,건조기 돌려보지는 않았는데 혹시 건조기까지 사용해서 줄어드는 상황이 오면 상품평에 추가해두겠습니다~!
-두께가 적당히 얇지도 두껍지도 않아서 날씨가 지금보다는 조금 더 추워지면 패딩조끼와 같이 잘 활용해서 입을 수 있을 듯 합니다!
-*단점
-하루차이로 한사이즈 업해서 다른색상 구매했는데 금액이 올랐습니다 ㅠㅠ
-내돈내산으로 제 상품평이 도움이 되셨다면 도움돼요 한번 부탁드립니다~^^</t>
+          <t>기상변화에 따라 일교차가 있어 등학교때 입을 바람막이가 필요해서 구입하게 되었어요.
+고3남학생 175키에 64키로 보통 체격입니다
+주문후 다 2일 후 배송이 되었고 포장을 뜯고 원단부터 확인을 해보니 한여름에 입어도 무관할 정도로 원단은
+시원했어요. 평소 100사이즈를 입는 아들인데 내년까지 쭉 입히려고 105사이즈로 구입했어요. 사이즈가
+작다는 후기들이 있어 사이즈 업~~~~
+속에 아무거나 입어도 되고 막 입히기 편해 보였어요. 더울때 가방에 넣고 다녀도 구김이 별로 가지 않아
+좋고 세탁후 건조 할때 쫙~쫙펴서 옷걸이에 걸어서 건조하니 근방 마르더라구요
+요즘 처럼 비오거나 했을때 걸어만 두어도 근방 말라 좋더라구요..
+색상은 찐한 파랑색이라 너무 튀지 않을까 색상 고민을 좀 했는데 나름 파랑색이 시원해 보이고 해서
+색상 선택은 너무 잘한거 같아요~~
+입었을때 기장은 살짝 힙을 덮어 주어 기장감도 만족 합니다.
+모자는 탈 부착으로 되어 있어 구지 모자가 필요 없으면 지퍼가 달려있어 뺴고 입으셔도 됩니다.
+우선 맘에 들었던건 가성비조~~ 아울렛가도 바람막이도 엄청 비싸더라구요.
+적당한 선에서 고르고 또 고르고 했는데 역시 쿠팡은 물건도 많고 가성비 좋은 제품이 있어 이번에도
+득템했네요~~
+조금이라도 되움됐음 좋겠네요 ^^</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>잘빠진 여성용 어반 아노락 반집업 조거 상하의 세트, S~M, 카키</t>
+          <t>남성 데일리 바람막이 자켓 5가지 색상 등산복 작업복 일상복 빅사이즈 MHWF-31, 블랙, 110</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1. 가성비 좋은 남성 바람막이  
+가성비 좋은 남성 바람막이 자켓은 일상용, 등산용 등 다양한 상황에서 활용 가능해 매우 실용적입니다. 특히 기상 변화가 잦은 여름철에 적합한 디자인으로, 시원하고 가벼운 원단이 특징입니다. 사이즈 선택에 유의해야 하며, 후기처럼 사이즈 업을 고려하면 더 편안하게 입을 수 있습니다. 탈부착 가능한 모자와 기장감이 힙을 덮어주는 디자인은 실용성과 스타일을 동시에 만족시킵니다. 세탁 후 건조가 용이하며, 구김 걱정 없이 가방에 넣고 다닐 수 있는 점도 큰 매력입니다. 이처럼 고품질의 바람막이는 가성비 좋은 선택으로, 쿠팡과 같은 플랫폼에서 쉽게 찾아볼 수 있습니다.
+2. 일상에서 활용도 높은 디자인
+남성 데일리 바람막이 자켓은 일상에서 활용도가 높은 디자인으로, 다양한 상황에 적합하게 제작되었습니다. 모자가 탈부착 가능해 필요에 따라 스타일을 조절할 수 있으며, 가벼운 원단 덕분에 여름철에도 착용할 수 있습니다. 기장은 힙을 덮어주어 체형에 무리 없이 편안한 착용감을 제공하며, 세탁 후 빠르게 건조되는 특성 덕분에 손쉽게 관리할 수 있습니다. 어떤 옷과 매치하더라도 자연스럽게 어울리는 색상과 디자인은 데일리 웨어로서의 매력을 더합니다. 가성비 또한 뛰어나 경제적인 부담 없이 스타일을 유지할 수 있어, 실용성과 세련미를 동시에 갖춘 아이템으로 추천할 만합니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://link.coupang.com/a/cmgjww</t>
+          <t>https://link.coupang.com/a/cnENeL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://thumbnail10.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/9b89/ad8bbbf576af4ccf68b42d755e0223480f32ca1b1c5535c862c042243e9f.JPG</t>
+          <t>http://thumbnail7.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/5c55/072bd480f3389da808d76f5f1cf72d2d103432f73bddd1d5adfb2f907aa6.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>깔끔하고 아주편하게 입기 좋아요.
-컬러도 너무마음에들고 전반적으로 디자인이 아주깔끔해요,
-대충 아무 바지에 걸쳐입기도좋아서 동네마트가거나 캠핑갈때, 산책에도좋아요.
-포켓도 많고 가벼워서 사용하기도 최고!
-여성용은 허리에 라인이 잡혀 부해보이지도 않는게 딱이었습니다.
-휘뚤마뚤로 완전완전 추천해요!!!
-심지어가격도 너무나 착해서 부담없더라구요.</t>
+          <t>✅️ 깔끔한 포장으로 배달 완료
+✅️ 정말 군더더기 없이 이쁘더라고요
+✅️ 고무줄들도 짱짱하고 입기 편하답니다
+❤️----❤️----❤️----❤️
+저는 여자인데 왜인지 모르게 카고바지를 좋아해서 찾아보다가 이걸로 구매하게 되었어요. 근데 정말 너무 이뻐가지고 빨리 이 바지를 입고 캠핑 가고 싶더라구요
+1️⃣ 진짜 너무 이뻐요
+디자인도 디자인인데 너무 이쁘더라고요. 감사합니다
+무엇보다 바지에 그려져 있는 마크가 조화가 잘 돼서 정말 이쁘더라고요
+2️⃣ 고무줄이 짱짱해서 좋아요
+허리밴딩도 그렇고 발목쪽 고무줄도 그렇고 고무줄이 전부 잘 잡아주고 짱짱하더라구요. 감사합니다. 이런 짱짱한 고무줄이 최고예요.
+특히 허리 쪽 고무줄은 바깥으로 나와 있는 게 아니라 안쪽으로 들어가 있어서 입기 더욱 더 좋답니다
+3️⃣ 깔끔한 포장 최고
+바지가 포장이 올 때 구겨지고 막 오는 경우들이 많은데 이거는 깔끔하게 포장이 잘 왔더라구요. 그래서 정말 좋아요
+♦️----♦️----♦️----♦️
+이 바지를 받아 보고 남편한테 빨리 캠핑 가자고 조르고 있어요.
+캠핑가서 입고 찍은 사진 리뷰에 남기고 싶었지만... 캠핑을 갈 기미가 안보여서 그냥 찍어 올려용 ㅠㅠㅠ
+진짜 만족스러운 예쁜 바지에요!</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>여성 바람막이 아웃도어 등산복 자켓, 핑크, 2XL</t>
+          <t>HANYO 방수 작업복 포켓 디자인 등산캠핑용 아웃도어 남녀공용 캐주얼 롱팬츠, 블랙, M</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1. "스타일과 실용성의 조화"
+HANYO 방수 작업복 포켓 디자인의 아웃도어 바지는 스타일과 실용성이 완벽하게 조화를 이루고 있습니다. sleek한 디자인과 세련된 색감 덕분에 어디에나 잘 어울리며, 여유로운 실루엣이 편안함을 제공합니다. 특히 고무줄 허리밴딩과 발목 디자인은 몸에 잘 맞아 활동성을 극대화해 주며, 캠핑과 등산과 같은 야외 활동에서도 편안한 착용감을 보장합니다. 포켓 디자인은 실용성을 더해 개인 소지품을 안전하게 수납할 수 있어 유용합니다. 이러한 요소들이 결합되어 스타일과 기능성을 모두 갖춘 완벽한 아웃도어 팬츠를 만들어냈습니다. 이 바지를 입으면 자신감과 멋스러움을 동시에 느낄 수 있어, 캠핑과 같은 특별한 순간을 더욱 즐겁게 만들어 줍니다.
+2. "편안한 착용감 자랑"
+HANYO 방수 작업복 포켓 디자인의 롱팬츠는 편안한 착용감으로 가득 차 있습니다. 허리 부분의 고무줄은 짱짱하게 잘 잡아주어 체형에 맞게 편안하게 착용할 수 있도록 도와줍니다. 특히 고무줄이 바지 안쪽에 들어가 있어 외관을 미려하게 유지하면서도 착용 시 더욱 잘 감싸주어 안정감을 느낄 수 있습니다. 발목 부분의 고무줄도 적당한 조임으로 활동 시 편리함을 더해주며, 어떤 상황에서도 자유롭게 움직일 수 있도록 해줍니다. 이 바지를 입고 캠핑이나 아웃도어 활동을 떠난다면, 편안함이 주는 기분 좋은 경험을 만끽할 수 있을 것입니다. 디자인과 기능성을 모두 갖춘 이 바지는 바쁜 일상 속에서도 편안함을 잃지 않게 해줍니다.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://link.coupang.com/a/cmgjxy</t>
+          <t>https://link.coupang.com/a/cnENgf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/ba8c/78a259c7231dc46f31f8e905dbed70e232a7641595ee1de0dbde944dfac6.jpg</t>
+          <t>http://thumbnail9.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/107a/88d513f0b6d34a73323515882674005c28aa20134fa1fd19416310b21a5a.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>민트스쿨 남성용 아웃도어 등산복 바람막이, 진그레이 5XL를 구매했어요. 남편이 체구가 있는 편이라 5XL 사이즈를 선택했는데, 정말 잘 맞더라고요. 색상은 호불호가 없는 진한 그레이라서 어떤 옷과도 잘 어울리고, 남편도 마음에 들어 했어요.
-이 바람막이는 소매 주머니 지퍼 부분이 정말 견고하게 만들어져 있어서 보통 저렴한 제품에서 느껴지는 싼 티가 나지 않아요. 주머니 지퍼가 튼튼하게 잘 작동하고, 디자인도 깔끔해서 실용성이 높아요. 남편이 자주 외출할 때 필요한 아이템이라 더욱 신경 써서 고른 것인데, 이렇게 만족스러운 제품을 찾게 되어 기쁘네요.
-하지만 한 가지 고민이 생겼어요. 세탁 후 소매와 등판 부분에 주름이 잘 없어지지 않더라고요. 처음에는 세탁 후 자연스럽게 펴질 거라고 생각했는데, 기대와는 달리 주름이 남아있어서 조금 아쉬웠어요. 그래서 세탁소에 가서 한 번 다려달라고 할까 고민 중이에요. 남편은 그냥 입겠다고 하긴 했지만, 주름이 약간 신경 쓰이기는
-전반적인 품질은 정말 좋았어요. 옷 전체적으로 보풀도 없고, 세탁 후 변형도 전혀 없어서 사용하기에 문제없어요. 일반적으로 아웃도어 의류는 세탁 후 변형이 생기기 쉬운데, 이 제품은 그런 점에서 아주 만족스러웠어요. 남편이 자주 입고 다니는데, 활동할 때도 편안하고 자유롭게 움직일 수 있어서 좋다고 하더라고요.
-바람막이의 방풍 기능도 뛰어나서 바람이 많이 부는 날에도 편안하게 입을 수 있었어요. 남편이 등산이나 야외 활동을 할 때 유용하게 활용하고 있어서, 이 점도 큰 장점이에요. 디자인도 심플하고 세련돼서 일상적인 외출 시에도 잘 어울려서 자주 입고 나가고 있어요.
-이번에 구입한 아웃도어 바람막이는 색상과 디자인, 기능성 모두 만족스러운 제품이에요. 주름 문제는 조금 아쉽지만, 전체적인 만족도는 높아서 잘 입고 다니고 있어요.</t>
+          <t>바람막이가 있긴한데....색상도 그렇고 크기고 제게 좀 큰거라서
+잘 안입게 되더라구요...저는 원래 타이트하게 딱 입는 스탈이고
+깔끔한걸 좋아해요~~
+이번에 일교차가 큰 나라로 여행을 가게 되어 바람막이가
+있는지 봤는데 제가 마음에 드는 옷이 없어 찾아보게 되었어요~
+여러 사이트도 비교해보고 봄, 가을에 입을수 있는...부담이 없는
+막 입을 정도로의 옷을 찾아보고 있었는데요.
+그 중에 디자인이나 성능이나 가성비....브랜드 모두 만족시켜주는
+바람막이가 바로 &lt;몽벨 남성 웜테크 트랙 자켓&gt;이었어요!!!
+일단 바람막이니깐 역할은 보온을 해주면서도 바람을 피해 갈 수
+있는 정도면 될 것 같았는데 몽벨 트랙자켓은 등 부분에 얇은 기모?처럼 되어 있어 덥지도 춥지도 않게 온도를 유지시켜 줄수
+있는 자켓이었습니다.
+또한 막 휘날리고 이런 소재가 아니라 어느정도 각을 잡아주는
+봄에 입으면 딱 이쁜 그런 자켓이었어요~~역할은 바람막이지만
+디자인은 또 자켓이고 완전 이쁜 그 자체였습니다^^
+겉감은 물을 튕겨내는 발수 기능이 있어 비가 오는 날에도 끄덕없이 편하게 입을수 있고, 땀과 습기를 수증기 형태로 배출하는 투습 기능도 있다고 합니다.
+등산이나 외출복에도 안성맞춤일 것 같구요.
+색상은 문안하게 블랙으로 했는데 입으니깐 영롱하게 너무 멋져서
+잘 샀다고 생각했어요 ㅋㅋㅋ
+일반 바람막이보다는 자켓형태로 되어 있다보니 무게가 조금 더
+나가는것 같고, 봄, 여름, 초겨울에도 입을수 있는 광범위하게
+디자인이 되어 있어 완전 만족하면서 입을려구요!!!
+봄에는 셔츠나 라운드티에 입어도 되고 조금 춥다고 생각되면
+그 위에 경량 베스트 하나 입고 마지막에 자켓을 입으면 딱일것
+같다는 생각이 드네요~~~
+바깥쪽 메인 지펴를 올리게 되면 그 외부에 플라켓 처리가 되어있어 단추로 딱 잠그면 지퍼 사이로 들어오는 바람을 최소화
+시켜주어 체온 유지에 도움을 주는것 같습니다.
+또한 마음에 들었던게 손목 밑단에 밴딩 처리를 하여 편안한
+착용감과 활동성을 강화시켜 주어 너무 좋았어요~~
+흘러내리지도 않고 옷맵시를 딱 잡아주어 멋져보였어요!
+앞쪽에 몽벨 브랜드 로고도 심플하게 처리 되어 있고 와펜도
+부착되어 있어 밋밋할 수 있는 바람막이를 특징있게 살려낸것도
+포인트인거 같아요~^^
+블랙 자켓이다보니 팬츠도 블랙으로 깔맞춤하게 되면 러닝할때나
+등산할때나 일상복으로도 충분히 깔끔하게 입을수 있는 바람막인거 같아서 자주 입게 될 것 같아요.
+제가 M(95)와 L(100)사이즈를 엄청 고민했었는데요.
+어깨가 조금 좁고 소매통도 작아 95를 선택해봤는데 완전
+깔맞춤이었습니다! 사이즈가 딱 맞아서 너무 기뻣어요~
+바람막이 역할이 많이 있지만 디자인은 자켓형태라서 너무
+헐거워 보이면 좀 멋없을것 같아 95했는데 예상적중했네요!
+다만...상품 페이지에는 제조국이 베트남이었는데,
+막상 제품 안쪽 라벨에는 제조국이 중국이네요...
+그게 좀 실망스럽긴 하지만....나머지 부분인 바람막이의 역할,
+기능성, 활동성, 브랜드 이미지, 가성비 측면 등 모든 부분이
+만족되어 기쁘게 입을려고 합니다~~~
+구매시 제조국에 조금 예민하신 분들은 참고 부탁드립니다...
+이상 내돈내산 솔직한 후기였으며,
+구매시 긴 후기가 도움이 되셨다면 &lt;&lt;도움이 돼요&gt;&gt;버튼을
+눌러주시면 솔직한 후기 작성에 힘이 날 것 같습니다^^
+감사합니다. 좋은 하루 되세요^______^</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>민트스쿨 남성용 아웃도어 등산복 바람막이, 블랙, 3XL</t>
+          <t>몽벨 남성 웜테크 트랙자켓_MW3GAMJW20, 095, 블랙(BK)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1. 스타일과 기능성을 갖춘 바람막이
+몽벨 남성 웜테크 트랙자켓은 스타일과 기능성을 동시에 갖춘 훌륭한 바람막이입니다. 이 자켓은 부드러운 기모 소재로 제작되어 체온을 효과적으로 유지하며, 발수 기능이 있어 비 오는 날에도 착용할 수 있습니다. 디자인은 깔끔하고 세련되어 일상복으로도 이질감 없이 잘 어울립니다. 활동성을 고려한 밴딩 처리된 손목과 체형에 맞는 핏 덕분에 편안한 착용감을 제공합니다. 외부 지퍼와 플라켓으로 바람을 최소화해 보온성을 더하며, 몽벨 로고와 와펜이 포인트로 더해져 고급스러운 느낌을 줍니다. 전반적으로 일교차가 큰 날씨에 적합한 자켓으로, 일상생활이나 운동 시 유용하게 활용할 수 있는 아이템입니다.
+2. 완벽한 핏과 따뜻함!
+몽벨 남성 웜테크 트랙자켓은 완벽한 핏과 따뜻함을 동시에 제공하는 아이템입니다. 제가 선택한 M(95) 사이즈는 어깨와 소매 통이 잘 맞아 다소 타이트하게 입는 스타일을 선호하는 저에게 안성맞춤이었습니다. 자켓 형태이지만 활동성이 뛰어나며, 손목 밑단의 밴딩 처리가 편안한 착용감을 제공합니다. 등 부분의 얇은 기모 소재 덕분에 온도를 잘 유지해주고, 발수 기능이 있어 비 오는 날에도 편리합니다. 깔끔한 블랙 색상은 다양한 상황에서 활용 가능하며, 심플한 몽벨 로고가 포인트가 되어 스타일을 더욱 돋보이게 합니다. 전체적으로 디자인과 기능성 모두 만족스러운 자켓입니다.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://link.coupang.com/a/cmgjy5</t>
+          <t>https://link.coupang.com/a/cnENjv</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://thumbnail7.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/169b/897ec8656a9c0c399c29cd115b71b0726531590881750add0905a15891c7.jpg</t>
+          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/2448/4ab510406faa34aa4307bac3697ff868cd0cd59d78f8a7369b3b98b89e20.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>잘 받았습니다.
-퀄리티가 너무 좋아서 특별히 착용 소감을 적어봤습니다.
-더 많은 친구들이 이 겨울 자켓을 구매할 수 있기를 바랍니다.
-이 겨울 재킷을 처음 입었을 때 사방에 감싸인 포근함이 순간적으로 온몸에 훈훈한 온기가 느껴졌습니다.
-저는 아웃도어 활동과 자동차 여행을 즐기는 사람으로서 실용적이면서도 편안한 외투가 여행에서 얼마나 중요한지 잘 알고 있습니다.
-이 재킷은 외부에 바람막이 원단을 사용함으로써 방풍,방수 효과가 뛰어나며 그로인해 방한과보온성 또한 뛰어납니다.
-이 재킷은 마치 제 개인 보호막처럼 빗물이 때려도 안으로 전혀 스며들지 않아 항상 건조하고 편안함을 유지시켜 줍니다.
-눈내리는날 우산없이 눈내리는 풍경을 마음껏 즐길 수 있을겁니다.
-그리고 그 방풍기능은 더욱 절 감탄하게 합니다.
-찬바람이 부는 겨울날에도 따뜻한 온기가 나를 감싸고 있는 것을 느낄 수 있습니다.
-마치 따뜻한 품에 안겨 있는 것 같습니다.
-창문을 열고 운전할 때도 이 재킷은 역시나 훌륭합니다.
-재킷의 커팅 디자인이 매우 인간적이며, 큰 사이즈의 선택이 내 체형에 완벽하게 맞아떨어져서 운전석에서 아무런 구속 없이 자유롭게 움직일 수 있게 해줍니다.
-또한 가벼운 소재와 스크레치 방지 기능으로 장시간 주행 후에도 의류가 손상되거나 주행 안전에 지장을 줄 염려 없이 산뜻하고 편안함을 유지시켜 줍니다.
-더욱 놀라운 것은 이 재킷의 디자인이 매우 스타일리시하다는 것입니다.
-단순히 실용적인 아웃도어 아이템이 아니라 전체적인 이미지를 높일 수 있는 패션 아이템입니다.
-캐주얼 팬츠나 청바지에 코디하기에도 부담 없이 다양한 장소를 소화할 수 있어 아웃도어 생활과 일상생활에서도 자신감과 멋을 유지할 수 있습니다.
-이제 저는 거의 매일 이 옷을 입고 이 추운 겨울을 함께 할 것입니다.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>남자패딩 등산 코트 빅사이즈 바람막이 아웃도어자켓 방한 아우터 방수 방풍 보드복 겨울 스키복, 다크그레이 dark..., S</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://link.coupang.com/a/cmgjBD</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>http://thumbnail7.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/2a27/f75c9f3bf68a4c3fec9b6fc75d14d6d7bd11d247085aead2de23ec3a7489.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>✨maomaodian바람막이 등산복 점퍼 남성 방수 아웃도어 봄 가을 탈부착 J1
-✔️세 가지 컬러
-블랙 그레이 화이트
-✔️아빠의 키는 170kg, 몸무게는 70kg 정도입니다.
-아빠의 배가 조금 더 크신 분들도 계시기 때문에 추천 사이즈에 참고하셔서 평소 아빠가 사신 셔츠 사이즈는 105로 해서 2xl로 선택했습니다. 착용해보니 잘 어울리는 것 같으니 참고하세요.
-✔️이 바랑막이 받고 정말 놀랐습니다! 소재가 정말 짱짱해요!
-정전기 방지
-땀과 보온을 방지하다.
-가벼운 소재
-스타일리시함
-다목적
-데일리 캐주얼, 등산, 캠핑, 달리기, 스키.
-✔️바람막이 소재는 생각보다 만졌을 때 부드러운데 구김이 잘 가는 소재도 아니에요.예전에 만져본 적이 있는 바람막이는 부드럽고 구겨져 보이기 쉬운 바람막이인데 다림질하기도 쉽지 않아요!그런데 이 바람막이 소재는 안 되고 바람막이는 전체적으로 평평해 보이고 만져도 불편하지 않아요.
-입으셔도 깔끔해 보여요!!
-아빠가 까만색을 좋아해서 평소에도 어두운 계열로 코디하기 때문에 이 색의 아빠도 좋아해요. 게다가 디자인도 깔끔하고 소재도 편해서 아버지가 굉장히 만족해하셨어요.
-✔️검정색도 오래 입을 수 있어요.
-아주 특이한 목 부분의 단추 디자인인데 단추가 채워져 있는 단추보다는 이 디자인이 특별하고 예쁘다고 생각해요.
-✔️바람막이 레터링도 깔끔합니다. 빨래를 몇 번 하면 떨어질 것 같은 인쇄된 문자는 아니에요.
-✔️포켓에 지퍼 디테일이 있어 물건을 넣어도 잃어버릴 염려가 없답니다. 소매도 여밈이 있는 디자인으로 바람막이 효과가 더욱 좋습니다.
-✔️모자에 달린 스트링도 신축성 있는 디자인으로 깔끔해서 쉽게 망가지지 않아요.
-✔️모자는 분리가 가능하므로 모자를 원하지 않으셔도 쉽게 지퍼를 통해 바로 분리하실 수 있습니다.
-전체적으로 정말 만족스러웠어요! 이 가격에 그렇게 좋은 바람막이를 살 수 있다니 정말 가성비가 너무 좋다! 몇 벌 더 사야겠다!
-내돈내산의 찐 상품후기 입니다
-⭕️소중한 내 재산으로 구입해서 사용해보고 쓴 생생 후기 입니다
-⭕️재 후기가 도움이 되었다면‘도움이 돼요‘를 꾸욱 눌러주세요.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>maomaodian바람막이 등산복 점퍼 남성 방수 아웃도어 봄 가을 탈부착 J1, 블랙, L(95)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://link.coupang.com/a/cmgjC7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/2448/4ab510406faa34aa4307bac3697ff868cd0cd59d78f8a7369b3b98b89e20.jpg</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>남편이 저녁때 조금 쌀쌀할 때 입을만한 옷 필요하다고 구매해달라고 해서 구매하게 되었답니당~^^♡
 검정색 회색 카키색 있는데 회색이 젤 무난해보이더라구요.
@@ -710,55 +724,56 @@
 진짜 이쁜옷 잘 산듯 해요.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>맨하트 춘추 아웃도어 자켓 등산복 일상복 작업복 빅사이즈 MHWF-59, 100, 블랙</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1. 실용적인 디자인과 편안함
+맨하트 춘추 아웃도어 자켓은 실용적인 디자인과 편안함이 잘 결합된 제품입니다. 남편을 위해 구매한 이 자켓은 다양한 기능을 갖추고 있어 일상복, 작업복 등 여러 상황에서 활용 가능합니다. 특히 손목 부분의 찍찍이로 조절 가능한 디자인은 실용성을 높이며, 헐렁한 핏으로 편안한 착용감을 제공합니다. 여러 개의 주머니 또한 실용적인 요소로, 핸드폰이나 지갑을 안전하게 수납할 수 있어 매우 유용합니다. 허리 조절 끈이 있어 착용자의 체형에 맞출 수 있어 더욱 편리하답니다. 디자인도 세련되어 일상 생활 속에서도 멋스럽게 입을 수 있습니다.
+2. 안전한 주머니와 스타일링
+맨하트 춘추 아웃도어 자켓 MHWF-59는 실용성과 스타일을 동시에 제공합니다. 이 자켓의 가장 큰 장점 중 하나는 안전한 주머니입니다. 내부에는 핸드폰이나 지갑을 넣기에 적합한 주머니가 있어 소지품을 안전하게 보관할 수 있습니다. 또한, 가슴 부분에 자크 주머니가 있어 외부에서도 쉽게 접근할 수 있는 편리함을 제공합니다. 이처럼 다양한 주머니는 노트나 간단한 소지품을 수납하기에 유용하여 야외 활동 시 큰 도움이 됩니다.
+스타일링 면에서도 이 자켓은 매력적입니다. 세련된 색상과 디자인으로 캐주얼한 일상복으로도 손색이 없으며, 다양한 아우터와 쉽게 매치할 수 있습니다. 손목 부분은 찍찍이로 조절 가능하여 원하는 핏에 맞출 수 있어 편안함을 더합니다. 허리 부분의 조절 끈은 몸에 맞춘 실루엣을 만들어 주며, 활동성을 높여줍니다. 전체적으로 맨하트 자켓은 안전하고 실용적이면서도 스타일리시한 선택으로, 다양한 상황에서 활용될 수 있는 멋진 아이템입니다.</t>
+        </is>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://link.coupang.com/a/cmgjD7</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/a91c/9e3d33d7cdb1dce0bae29598b4c2acd0a7f7ca170087fc6e59da70ef2751.jpg</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>작업복으로 입으려고 구매했습니다. 가랭이부분,엉덩이 부분,허리 부분, 지퍼 부분이 특히 중요한데요 박음질이 엉망입니다. 같은 사이즈인데 바지밑단의 넓이와 길이가 다릅니다. 일하다 가랭이나 엉덩이부분 터질까봐 걱정이네요.
-재질,디자인은 마음에 듭니다. 박음질 견고하고 깔끔하게 좀 만들어주세요.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>워킹맨 아울렛 남성 1+1 봄 가을 시즌 다용도 멀티 스판 캠핑바지 낚시복 작업복 근무복 캠핑복 B128, 카키색+카키색, 34</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://link.coupang.com/a/cmggzt</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/a91c/9e3d33d7cdb1dce0bae29598b4c2acd0a7f7ca170087fc6e59da70ef2751.jpg</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>작업복으로 입으려고 구매했습니다. 가랭이부분,엉덩이 부분,허리 부분, 지퍼 부분이 특히 중요한데요 박음질이 엉망입니다. 같은 사이즈인데 바지밑단의 넓이와 길이가 다릅니다. 일하다 가랭이나 엉덩이부분 터질까봐 걱정이네요.
-재질,디자인은 마음에 듭니다. 박음질 견고하고 깔끔하게 좀 만들어주세요.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>워킹맨 아울렛 남성 1+1 봄 가을 시즌 다용도 멀티 스판 캠핑바지 낚시복 작업복 근무복 캠핑복 B128, 카키색+카키색, 34</t>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://link.coupang.com/a/cnENmH</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>http://thumbnail6.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/ba17/a2e84545a45cedc3301d730b78312e3561a9c9dfef8b83e6ac76493498c6.JPG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>가격대비 너무 예쁘고 잘 만들어졌어요.
+초등 아들이 키가 170이 다돼가서 예전옷들은 맞지 않고,
+이제 막 아침저녁으로 쌀쌀해져서 좀더 쌀쌀해지면 딱이겠다싶어서 3XL로 샀어요.
+소매가 좀 길긴한데 품은 넉넉하게 맞아요.
+원래 팔이 긴편인데도 소매가 긴거보면 성인용이라서 그런듯 합니다. (이건 후기적다 생각남)
+아이는 맘에 든다는데 좀 크면 내년에도 입고 좋다는데 다시한번 입혀보고 결정해야할듯.
+어쨋든 바느질 꼼꼼하고 모자 탈부착도 세련되게 만들어져 있고,
+주머니도 지퍼가 있는데,
+모양도 깔끔하고 예쁘게 라인처리된게 맘에 드네요.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>남성 바람막이 아웃도어 등산복 자켓, 라이트 그레이, 4XL</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1. 세련된 디자인과 편안함  
+이 남성 바람막이 아웃도어 자켓은 세련된 디자인과 편안함을 동시에 겸비한 제품입니다. 라이트 그레이 색상은 깔끔하고 모던한 느낌을 주며, 다양한 액세서리와도 잘 어울립니다. 특히, 바느질이 꼼꼼하게 처리되어 있어 내구성이 뛰어나며, 세련된 탈부착형 모자는 스타일을 더욱 돋보이게 합니다. 옷의 품이 넉넉하게 맞아 활동할 때 편안함을 제공하고, 긴 소매는 팔이 긴 사용자에게도 적절한 길이를 유지해 주어 더욱 실용적입니다. 또한, 지퍼가 있는 주머니는 소지품을 안전하게 보관할 수 있어 아웃도어 활동에 적합합니다. 전반적으로 이 자켓은 주말 등산이나 일상에서 모두 활용할 수 있는 멋진 선택이 될 것입니다.
+2. 넉넉한 사이즈, 활용도 높음  
+이 남성 바람막이 아웃도어 자켓은 넉넉한 사이즈로 다양한 체형에 잘 맞습니다. 특히, 초등학생 아들이 성장 중이라 담임교사와 함께 선택한 3XL 사이즈는 여유 있는 핏으로 매우 편안합니다. 팔 길이가 긴 편이라 소매가 길게 나왔지만, 그렇다고 너무 불편하지 않아 활동성이 뛰어납니다. 라이트 그레이 색상은 시각적으로 깔끔하고 세련된 느낌을 주며, 활용도가 높아 일상적인 아웃도어 활동부터 간편한 산행까지 잘 어울립니다. 바느질이 꼼꼼하고 탈부착 가능한 모자, 지퍼가 있는 주머니는 실용성을 추가해 주어 실제 사용 시에도 유용합니다. 때문에 내년에도 입을 수 있을 만큼 넉넉하여, 장기적으로도 활용 가능성이 높습니다. 이런 세심한 디자인과 기능 덕분에 만족스러운 구매로 기억될 것 같습니다.</t>
         </is>
       </c>
     </row>

--- a/blog_automatic_posting.xlsx
+++ b/blog_automatic_posting.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,329 +451,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://link.coupang.com/a/cnENbn</t>
+          <t>https://link.coupang.com/a/cnZG12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://thumbnail10.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/f946/97b84ec7d4b48c3b6fa58a9dbf36fb7c41c152cf18eada1c4f565c6248c1.jpg</t>
+          <t>https://thumbnail8.coupangcdn.com/thumbnails/remote/492x492ex/image/vendor_inventory/7f92/18644a2deebb98b7f13e6ce0bf01d28551fb4cc4d8ad0bd91c6f22db45af.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>작년에 블랙으로 구매했었는데 만족해서 베이지 색상으로
-또 구매했어요.
-✳️ 상품명
-잘빠진 여성용 어반 아노락 반집업 조거 상하의 세트,
-S~M 베이지
-✳️ 구매날짜
-2025년 4월 2일
-✳️ 특징
-✔️ 나일론 100% 바스락 소재로 가벼운 착용감
-✔️ 허리 밴딩으로 하루종일 편안한 착용감
-✔️ 상의 스트링으로 체형에 맞게 조절 가능
-✔️ 상의, 하의 단독으로 착용 가능
-작년에 블랙으로 구매했었는데 운동복으로도 잘 입었고
-일상복으로도 잘 입었어요.
-세탁 후에 건조기로 건조해도 옷감 손상도 없었구요.
-옷이 정말 가벼워서 좋더라구요.
-다만, 상의가 많이 크게 나온거에 비해 키가 156 인 저에게도
-하의 길이는 너무 딱 맞는다 할까요?
-너무 길지 않아서 저는 딱 좋았는데 마르고 키가 크신
-분들에게는 살짝 짧을 수도 있을 것 같아요.
-이번에는 인기 색상인 베이지 색상으로 샀는데 환하니
-요새 봄에 입기 딱 너무 예쁜 색상 입니다.
-베이지 색상은 외출용으로 편하게 입으려고 구매한거라
-색상도 너무 맘에 듭니다.
-사진처럼 안에 흰티 레이어드 해서 입음 더 예쁠 것 같아요.
-옷의 바느질이나 마감도 문제 없었고 깔끔하네요.
-카키색상이랑 고민했는데 베이지 색상이 밝아서 예뻐요.
-블랙이랑 번갈아 입을 생각하니 너무 좋아요ㅎㅎ
-외출복 문제 없을 것 같아요.
-외출복, 운동복으로도 만족해서 추천 드립니다.</t>
+          <t>⭕ 소프트한 터치 및 최적의 그립감
+⭕ 뛰어난 반발력으로 입문자용으로 적합
+⭕ 마감퀄리티 좋고 가성비 굿
+⭕ 합성 고무 소재 적용
+간만에 농구가 하고 싶어서 가성비 좋은 스타 점보루키
+농구공을 주문했어요
+다이어트도 할겸 겸사겸사 예전에는 친구들과 농구도
+자주해서 생각이 나더라구요
+집앞에 농구코트가 있어서 자주 할수있을거 같고
+공을 받아보니 드리블을 해봤는데 공이 반발력이 좋아요
+색상도 일반 농구공과 큰 차이가 없었고 재질도 가격대비
+괜찮은거 같고 마감퀄리티도 괜찮아요
+드리블할때 통통 튕기는 느낌이라서 힘을 안줘도 잘튀는데
+아직은 오랜만에 하다보니 적응이 좀 필요할거 같아요
+야외 코트나 막 쓰는 용으로 부담없는 농구공이며 입문자용로
+사용하기에 적합한거 같아요
+제 후기가 도움이 되었다면
+[ 도움이 돼요 ] 눌러주시면 정말 감사드려요</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>잘빠진 여성용 어반 아노락 반집업 조거 상하의 세트, S~M, 카키</t>
+          <t>스타 점보루키 농구공 BB6067, 점보 루키, 7호, 1개</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1. 편안한 착용감, 스타일리시
-잘빠진 여성용 어반 아노락 반집업 조거 상하의 세트는 편안한 착용감과 스타일리시함을 동시에 제공합니다. 나일론 100%의 바스락 소재로 제작되어 가벼운 착용감을 느낄 수 있으며, 허리 밴딩 디자인 덕분에 하루 종일 편안하게 입을 수 있습니다. 상의의 스트링으로 체형에 맞게 조절할 수 있어 다양한 체형에도 잘 어울립니다. 일상복과 운동복으로 모두 잘 활용할 수 있어 실용적이며, 세탁 후에도 손상 없이 유지되는 내구성 역시 돋보입니다. 베이지 색상은 봄철에 어울리는 밝고 화사한 느낌을 주어 외출 시에도 스타일을 완성해 줍니다. 이렇게 편안하면서도 세련된 디자인은 여러 상황에서 만족감을 주어, 누구에게나 추천하고 싶은 아이템입니다.
-2. 데일리 &amp; 운동 필수 아이템
-데일리와 운동을 모두 소화할 수 있는 필수 아이템으로 여성용 어반 아노락 반집업 조거 상하의 세트를 추천합니다. 가벼운 나일론 100% 소재로 제작되어 바스락거리는 착용감이 일상에서 편안함을 제공합니다. 허리 밴딩과 상의의 스트링 조절 기능 덕분에 체형에 맞춰 입을 수 있어 더욱 실용적입니다. 세트는 별도로도 활용 가능해 다양한 스타일링이 가능합니다. 특히 지난해 블랙 컬러에 이어 인기 베이지 컬러로 추가 구매한 고객은 봄철 산뜻한 분위기를 원하며, 외출복으로도 완벽하다고 평가했습니다. 운동복과 일상복을 모두 만족시키는 이 세트는 편안함과 스타일을 동시에 추구하는 분들에게 안성맞춤입니다.</t>
+          <t>1. 가성비 최고 입문 농구공  
+스타 점보루키 농구공 BB6067은 가성비가 뛰어난 입문자용 농구공으로 추천합니다. 소프트한 터치와 최적의 그립감 덕분에 드리블을 할 때 편안하게 사용할 수 있으며, 뛰어난 반발력으로 초보자도 쉽게 공을 다룰 수 있습니다. 합성 고무 소재로 제작되어 내구성이 좋고, 마감 퀄리티도 뛰어나 부담 없이 야외 코트에서 사용할 수 있습니다. 패턴과 색상은 일반 농구공과 크게 다르지 않아 익숙함을 느낄 수 있으며, 드리블 시 통통 튀는 느낌이 즐거워 농구에 더욱 몰입할 수 있게 해줍니다. 오랜만에 농구를 다시 시작하고 싶은 분들께 적극 추천하는 제품입니다.
+2. 부드러운 터치와 반발력
+스타 점보루키 농구공 BB6067은 부드러운 터치감과 뛰어난 반발력이 특징입니다. 공을 처음 받아 dribble을 해보았을 때, 공이 가볍고 잘 튀는 느낌이 들어서 적응 기간이 필요한 걸 제외하면 매우 만족스러웠습니다. 소프트한 터치 덕분에 공을 다뤄보기에도 편하고, 초보자로서 충분히 다루기 쉬운 제품이라는 생각이 들었습니다. 특히, 반발력이 뛰어나서 힘들이지 않고도 쉽게 드리블이 가능해, 농구 입문자에게 최적화된 선택입니다. 가격 대비 마감 퀄리티도 우수해 야외에서 부담 없이 사용할 수 있어 이 농구공을 자신 있게 추천합니다.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://link.coupang.com/a/cnENdr</t>
+          <t>https://link.coupang.com/a/cnZG3N</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://thumbnail10.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/7dae/e7edbae24635da6cbb94ff38c67fae93a23bb154cd2d71875b92733f6d77.jpg</t>
+          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/retail/images/68464719721941-4d21d794-9fc6-437b-a989-d7656944339a.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>기상변화에 따라 일교차가 있어 등학교때 입을 바람막이가 필요해서 구입하게 되었어요.
-고3남학생 175키에 64키로 보통 체격입니다
-주문후 다 2일 후 배송이 되었고 포장을 뜯고 원단부터 확인을 해보니 한여름에 입어도 무관할 정도로 원단은
-시원했어요. 평소 100사이즈를 입는 아들인데 내년까지 쭉 입히려고 105사이즈로 구입했어요. 사이즈가
-작다는 후기들이 있어 사이즈 업~~~~
-속에 아무거나 입어도 되고 막 입히기 편해 보였어요. 더울때 가방에 넣고 다녀도 구김이 별로 가지 않아
-좋고 세탁후 건조 할때 쫙~쫙펴서 옷걸이에 걸어서 건조하니 근방 마르더라구요
-요즘 처럼 비오거나 했을때 걸어만 두어도 근방 말라 좋더라구요..
-색상은 찐한 파랑색이라 너무 튀지 않을까 색상 고민을 좀 했는데 나름 파랑색이 시원해 보이고 해서
-색상 선택은 너무 잘한거 같아요~~
-입었을때 기장은 살짝 힙을 덮어 주어 기장감도 만족 합니다.
-모자는 탈 부착으로 되어 있어 구지 모자가 필요 없으면 지퍼가 달려있어 뺴고 입으셔도 됩니다.
-우선 맘에 들었던건 가성비조~~ 아울렛가도 바람막이도 엄청 비싸더라구요.
-적당한 선에서 고르고 또 고르고 했는데 역시 쿠팡은 물건도 많고 가성비 좋은 제품이 있어 이번에도
-득템했네요~~
-조금이라도 되움됐음 좋겠네요 ^^</t>
+          <t>프로모릭스 픽앤롤 농구공 7호 + 가방 + 단방향 볼펌프 랜덤발송 세트
+★ 목차
+구매 후기에 앞서서 굉장히 솔직하게 작성하겠습니다.
+내돈내산 입니다. 어떠한 광고도 일절 없음을 미리 밝힙니다
+★ 구매이유
+갑자기 문득 옛날에 농구를 즐겨 했던 시절이 생각나서 쿠팡에서
+검색하여 주문하게 되었습니다.
+★ 장점
+1. 우수한 품질의 농구공
+농구공 자체의 품질이 매우 뛰어났습니다. 표면이 내구성 있는 소재로 제작되어 오랫동안 사용해도 손상이나 마모가 적었습니다. 그립감이 좋아 드리블과 슛 시 안정적인 컨트롤이 가능했습니다. 야외 코트뿐만 아니라 실내 코트에서도 우수한 성능을 발휘했습니다.
+2. 편리한 휴대용 가방
+세트에 포함된 가방은 휴대성을 높여주었습니다. 농구공과 함께 기타 개인 용품을 수납할 수 있는 충분한 공간이 있어 편리했습니다. 가방의 소재도 견고해서 여러 번 사용해도 변형이 없고, 어깨 스트랩이 있어 이동 시에도 부담이 적었습니다.
+3. 효율적인 단방향 볼펌프
+랜덤 발송되는 단방향 볼펌프도 매우 유용했습니다. 농구공을 빠르고 쉽게 공기 주입할 수 있어 편리했습니다. 특히 외부에서 급하게 공기가 필요할 때 신속하게 사용할 수 있어 좋았습니다. 펌프의 크기도 작아 가방에 함께 넣고 다니기 좋았습니다.
+★ 가격 :
+가격이 저렴합니다.
+그리고 품질대비 더더욱 저렴하다 볼수 있어요
+★ 재주문할것인가여?
+- 보고 추후에 한개더 주문하려고 합니다.
+★배송
+- 주문하고 다음날 바로 왔어요.
+★ 도움이 되셨으면 &lt;도움이 되요&gt; 클릭 부탁드립니다.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>남성 데일리 바람막이 자켓 5가지 색상 등산복 작업복 일상복 빅사이즈 MHWF-31, 블랙, 110</t>
+          <t>프로모릭스 픽앤롤 농구공 7호 + 가방 + 단방향 볼펌프 랜덤발송 세트, 공(둘레 780mm..., 1개</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1. 가성비 좋은 남성 바람막이  
-가성비 좋은 남성 바람막이 자켓은 일상용, 등산용 등 다양한 상황에서 활용 가능해 매우 실용적입니다. 특히 기상 변화가 잦은 여름철에 적합한 디자인으로, 시원하고 가벼운 원단이 특징입니다. 사이즈 선택에 유의해야 하며, 후기처럼 사이즈 업을 고려하면 더 편안하게 입을 수 있습니다. 탈부착 가능한 모자와 기장감이 힙을 덮어주는 디자인은 실용성과 스타일을 동시에 만족시킵니다. 세탁 후 건조가 용이하며, 구김 걱정 없이 가방에 넣고 다닐 수 있는 점도 큰 매력입니다. 이처럼 고품질의 바람막이는 가성비 좋은 선택으로, 쿠팡과 같은 플랫폼에서 쉽게 찾아볼 수 있습니다.
-2. 일상에서 활용도 높은 디자인
-남성 데일리 바람막이 자켓은 일상에서 활용도가 높은 디자인으로, 다양한 상황에 적합하게 제작되었습니다. 모자가 탈부착 가능해 필요에 따라 스타일을 조절할 수 있으며, 가벼운 원단 덕분에 여름철에도 착용할 수 있습니다. 기장은 힙을 덮어주어 체형에 무리 없이 편안한 착용감을 제공하며, 세탁 후 빠르게 건조되는 특성 덕분에 손쉽게 관리할 수 있습니다. 어떤 옷과 매치하더라도 자연스럽게 어울리는 색상과 디자인은 데일리 웨어로서의 매력을 더합니다. 가성비 또한 뛰어나 경제적인 부담 없이 스타일을 유지할 수 있어, 실용성과 세련미를 동시에 갖춘 아이템으로 추천할 만합니다.</t>
+          <t>1. "탁월한 농구 경험을 위한 완벽한 세트"
+프로모릭스 픽앤롤 농구공 7호 세트는 농구 애호가들에게 필수 아이템입니다. 뛰어난 품질의 농구공은 내구성이 뛰어나며, 우수한 그립감 덕분에 드리블과 슛이 안정적입니다. 실내외 코트를 가리지 않고 탁월한 성능을 발휘합니다. 추가로 제공되는 편리한 휴대용 가방은 개인 용품을 수납할 수 있어 이동 시 매우 유용합니다. 또한, 랜덤 발송되는 단방향 볼펌프는 공기 주입이 쉬워 외부에서도 신속하게 사용할 수 있습니다. 가격 또한 저렴해 품질에 비해 뛰어난 가성비를 자랑합니다. 이 세트는 농구 체험을 한층 더 즐겁게 만들어 줄 완벽한 선택입니다.
+2. "편리함과 품질을 동시에!"
+"편리함과 품질을 동시에!"라는 점에서 프로모릭스 픽앤롤 농구공 세트는 매우 만족스럽습니다. 농구공은 내구성이 뛰어난 소재로 제작되어 오랜 사용에도 견딜 수 있으며, 탁월한 그립감 덕분에 드리블과 슈팅 시 안정적인 컨트롤을 제공합니다. 이 농구공은 실내와 야외 모두에서 우수한 성능을 발휘하여 어떤 환경에서도 좋습니다. 또한, 세트에 포함된 가방은 추가 개인 용품을 수납할 수 있는 충분한 공간과 편리한 어깨 스트랩을 갖추고 있어 이동 시 부담이 없습니다. 단방향 볼펌프도 작고 효율적이어서 언제 어디서나 손쉽게 공기를 주입할 수 있어 매우 실용적입니다. 이 모든 요소가 결합되어 편리함과 품질을 동시에 충족시키는 농구공 세트로, 농구를 즐기는 모든 이들에게 추천할 만합니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://link.coupang.com/a/cnENeL</t>
+          <t>https://link.coupang.com/a/cnZG6D</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://thumbnail7.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/5c55/072bd480f3389da808d76f5f1cf72d2d103432f73bddd1d5adfb2f907aa6.jpg</t>
+          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/retail/images/2020/10/12/12/8/07694e82-6278-435c-b46e-2c30c13a3608.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>✅️ 깔끔한 포장으로 배달 완료
-✅️ 정말 군더더기 없이 이쁘더라고요
-✅️ 고무줄들도 짱짱하고 입기 편하답니다
-❤️----❤️----❤️----❤️
-저는 여자인데 왜인지 모르게 카고바지를 좋아해서 찾아보다가 이걸로 구매하게 되었어요. 근데 정말 너무 이뻐가지고 빨리 이 바지를 입고 캠핑 가고 싶더라구요
-1️⃣ 진짜 너무 이뻐요
-디자인도 디자인인데 너무 이쁘더라고요. 감사합니다
-무엇보다 바지에 그려져 있는 마크가 조화가 잘 돼서 정말 이쁘더라고요
-2️⃣ 고무줄이 짱짱해서 좋아요
-허리밴딩도 그렇고 발목쪽 고무줄도 그렇고 고무줄이 전부 잘 잡아주고 짱짱하더라구요. 감사합니다. 이런 짱짱한 고무줄이 최고예요.
-특히 허리 쪽 고무줄은 바깥으로 나와 있는 게 아니라 안쪽으로 들어가 있어서 입기 더욱 더 좋답니다
-3️⃣ 깔끔한 포장 최고
-바지가 포장이 올 때 구겨지고 막 오는 경우들이 많은데 이거는 깔끔하게 포장이 잘 왔더라구요. 그래서 정말 좋아요
-♦️----♦️----♦️----♦️
-이 바지를 받아 보고 남편한테 빨리 캠핑 가자고 조르고 있어요.
-캠핑가서 입고 찍은 사진 리뷰에 남기고 싶었지만... 캠핑을 갈 기미가 안보여서 그냥 찍어 올려용 ㅠㅠㅠ
-진짜 만족스러운 예쁜 바지에요!</t>
+          <t>● 구매일자 : 10월 1일
+● 배송일자 : 10월 2일
+● 구매후기 :
+초등아이가 농구를 하고 싶다고 하여 쿠팡
+에서 농구공을 구매하였습니다.
+VESTA 프리바스켓볼 7호 농구공을 받아보니 생각보다 가벼웠고 그립감이 괜찮았습니
+다. 보통의 농구공은 무거워서 아이가 공으로 플레이하기에 좀 힘들어했는데..
+7호 크기와 무게가 아이에게 적합하여 농구공을 던지거나 받는 데에 자연스럽고 편안한 느낌을 줍니다.
+초등아이가 부담없이 공을 잡고 손에서 미끄 러짐 없이 안정적인 컨 트롤이 가능했고, 드리블을 할 때도 그립이 좋은 덕분에 손에 힘을 주지 않고 자연스럽 게 공을 다룰 수 있어 농구 초보자나 어린 아이들에게 좋을 듯 합니다.
+그리고 외부 고무 재질이 튼튼한것 같고 가
+격 대비 7호 농구공은 비슷한 가격대의 다른 제품들과 비교했을 때 품질이 괜찮고 가격 은 합리적이어서 가성비 좋은 제품으로 추천 할 수 있겠습니다.
+종합적으로 볼 때, VESTA 프리바스켓볼 7호 농구공은 내구성, 그립감, 가격까지 모든면 면에서 만족스러운 제품으로 초보이면서 농구 를 자주하는 사람이나 가볍게 농구경기를 즐기고 싶어하는 초등아이들에게 좋을것 같습니다.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HANYO 방수 작업복 포켓 디자인 등산캠핑용 아웃도어 남녀공용 캐주얼 롱팬츠, 블랙, M</t>
+          <t>VESTA 프리 바스켓볼 BA-1059, BA-1059, 7호, 1개</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1. "스타일과 실용성의 조화"
-HANYO 방수 작업복 포켓 디자인의 아웃도어 바지는 스타일과 실용성이 완벽하게 조화를 이루고 있습니다. sleek한 디자인과 세련된 색감 덕분에 어디에나 잘 어울리며, 여유로운 실루엣이 편안함을 제공합니다. 특히 고무줄 허리밴딩과 발목 디자인은 몸에 잘 맞아 활동성을 극대화해 주며, 캠핑과 등산과 같은 야외 활동에서도 편안한 착용감을 보장합니다. 포켓 디자인은 실용성을 더해 개인 소지품을 안전하게 수납할 수 있어 유용합니다. 이러한 요소들이 결합되어 스타일과 기능성을 모두 갖춘 완벽한 아웃도어 팬츠를 만들어냈습니다. 이 바지를 입으면 자신감과 멋스러움을 동시에 느낄 수 있어, 캠핑과 같은 특별한 순간을 더욱 즐겁게 만들어 줍니다.
-2. "편안한 착용감 자랑"
-HANYO 방수 작업복 포켓 디자인의 롱팬츠는 편안한 착용감으로 가득 차 있습니다. 허리 부분의 고무줄은 짱짱하게 잘 잡아주어 체형에 맞게 편안하게 착용할 수 있도록 도와줍니다. 특히 고무줄이 바지 안쪽에 들어가 있어 외관을 미려하게 유지하면서도 착용 시 더욱 잘 감싸주어 안정감을 느낄 수 있습니다. 발목 부분의 고무줄도 적당한 조임으로 활동 시 편리함을 더해주며, 어떤 상황에서도 자유롭게 움직일 수 있도록 해줍니다. 이 바지를 입고 캠핑이나 아웃도어 활동을 떠난다면, 편안함이 주는 기분 좋은 경험을 만끽할 수 있을 것입니다. 디자인과 기능성을 모두 갖춘 이 바지는 바쁜 일상 속에서도 편안함을 잃지 않게 해줍니다.</t>
+          <t>1. 초등학생에게 딱 맞는 농구공  
+VESTA 프리바스켓볼 7호 농구공은 초등학생에게 적합한 농구공입니다. 가벼운 무게와 적절한 크기로, 아이들이 자연스럽게 공을 던지고 잡는 데 도움을 줍니다. 그립감이 뛰어나서 공이 손에서 미끄러질 걱정 없이 안정적으로 조작할 수 있습니다. 드리블을 할 때도 힘을 덜 주고 편안하게 다룰 수 있어, 농구 초보자에게 최적입니다. 외부 고무 재질이 튼튼하여 내구성이 좋고, 가격 대비 품질이 뛰어나 가성비가 뛰어난 제품으로 추천할 만합니다. 농구를 처음 시작하는 초등학생들에게 이상적인 선택이 될 것입니다.
+2. 가볍고 편안한 그립감
+VESTA 프리바스켓볼 7호 농구공은 가벼운 무게 덕분에 초등학교 아이들이 사용하기에 매우 적합합니다. 이러한 경량성 덕분에 아이들은 공을 던지고 받는 데 부담을 느끼지 않고 자연스럽게 다룰 수 있습니다. 특히 그립감이 우수하여 손에서 미끄러짐 없이 안정적으로 컨트롤할 수 있어 농구 초보자에게 많은 도움을 줍니다. 드리블할 때도 힘을 시도하지 않고 자연스러운 동작이 가능하여, 농구를 처음 접하는 아이들이 보다 자신감을 가지고 플레이할 수 있게 합니다. 이 공은 경험이 부족한 어린이들이 농구를 즐기는 데 최적화된 제품이라고 할 수 있습니다.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://link.coupang.com/a/cnENgf</t>
+          <t>https://link.coupang.com/a/cnZG70</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://thumbnail9.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/107a/88d513f0b6d34a73323515882674005c28aa20134fa1fd19416310b21a5a.jpg</t>
+          <t>http://thumbnail6.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/5e3f/c0e802ad15bd9f9e621481b50d09f6962d46cd27e601c31cdde94e521129.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>바람막이가 있긴한데....색상도 그렇고 크기고 제게 좀 큰거라서
-잘 안입게 되더라구요...저는 원래 타이트하게 딱 입는 스탈이고
-깔끔한걸 좋아해요~~
-이번에 일교차가 큰 나라로 여행을 가게 되어 바람막이가
-있는지 봤는데 제가 마음에 드는 옷이 없어 찾아보게 되었어요~
-여러 사이트도 비교해보고 봄, 가을에 입을수 있는...부담이 없는
-막 입을 정도로의 옷을 찾아보고 있었는데요.
-그 중에 디자인이나 성능이나 가성비....브랜드 모두 만족시켜주는
-바람막이가 바로 &lt;몽벨 남성 웜테크 트랙 자켓&gt;이었어요!!!
-일단 바람막이니깐 역할은 보온을 해주면서도 바람을 피해 갈 수
-있는 정도면 될 것 같았는데 몽벨 트랙자켓은 등 부분에 얇은 기모?처럼 되어 있어 덥지도 춥지도 않게 온도를 유지시켜 줄수
-있는 자켓이었습니다.
-또한 막 휘날리고 이런 소재가 아니라 어느정도 각을 잡아주는
-봄에 입으면 딱 이쁜 그런 자켓이었어요~~역할은 바람막이지만
-디자인은 또 자켓이고 완전 이쁜 그 자체였습니다^^
-겉감은 물을 튕겨내는 발수 기능이 있어 비가 오는 날에도 끄덕없이 편하게 입을수 있고, 땀과 습기를 수증기 형태로 배출하는 투습 기능도 있다고 합니다.
-등산이나 외출복에도 안성맞춤일 것 같구요.
-색상은 문안하게 블랙으로 했는데 입으니깐 영롱하게 너무 멋져서
-잘 샀다고 생각했어요 ㅋㅋㅋ
-일반 바람막이보다는 자켓형태로 되어 있다보니 무게가 조금 더
-나가는것 같고, 봄, 여름, 초겨울에도 입을수 있는 광범위하게
-디자인이 되어 있어 완전 만족하면서 입을려구요!!!
-봄에는 셔츠나 라운드티에 입어도 되고 조금 춥다고 생각되면
-그 위에 경량 베스트 하나 입고 마지막에 자켓을 입으면 딱일것
-같다는 생각이 드네요~~~
-바깥쪽 메인 지펴를 올리게 되면 그 외부에 플라켓 처리가 되어있어 단추로 딱 잠그면 지퍼 사이로 들어오는 바람을 최소화
-시켜주어 체온 유지에 도움을 주는것 같습니다.
-또한 마음에 들었던게 손목 밑단에 밴딩 처리를 하여 편안한
-착용감과 활동성을 강화시켜 주어 너무 좋았어요~~
-흘러내리지도 않고 옷맵시를 딱 잡아주어 멋져보였어요!
-앞쪽에 몽벨 브랜드 로고도 심플하게 처리 되어 있고 와펜도
-부착되어 있어 밋밋할 수 있는 바람막이를 특징있게 살려낸것도
-포인트인거 같아요~^^
-블랙 자켓이다보니 팬츠도 블랙으로 깔맞춤하게 되면 러닝할때나
-등산할때나 일상복으로도 충분히 깔끔하게 입을수 있는 바람막인거 같아서 자주 입게 될 것 같아요.
-제가 M(95)와 L(100)사이즈를 엄청 고민했었는데요.
-어깨가 조금 좁고 소매통도 작아 95를 선택해봤는데 완전
-깔맞춤이었습니다! 사이즈가 딱 맞아서 너무 기뻣어요~
-바람막이 역할이 많이 있지만 디자인은 자켓형태라서 너무
-헐거워 보이면 좀 멋없을것 같아 95했는데 예상적중했네요!
-다만...상품 페이지에는 제조국이 베트남이었는데,
-막상 제품 안쪽 라벨에는 제조국이 중국이네요...
-그게 좀 실망스럽긴 하지만....나머지 부분인 바람막이의 역할,
-기능성, 활동성, 브랜드 이미지, 가성비 측면 등 모든 부분이
-만족되어 기쁘게 입을려고 합니다~~~
-구매시 제조국에 조금 예민하신 분들은 참고 부탁드립니다...
-이상 내돈내산 솔직한 후기였으며,
-구매시 긴 후기가 도움이 되셨다면 &lt;&lt;도움이 돼요&gt;&gt;버튼을
-눌러주시면 솔직한 후기 작성에 힘이 날 것 같습니다^^
-감사합니다. 좋은 하루 되세요^______^</t>
+          <t>소음: 확실히 소음이 적음. 집이 2층이라 2층에서 드리블해도 1층에선 못 느낌. 다만 소음이 증폭되는 밤에는 귀 기울이면 조금씩 웅웅 하면서 진동 울리는듯한 소리는 남. 근데 신경 쓰일 정도는 아님. 공 튀길 때 은근 소리가 꽤 나는데? 싶지만 밑에 집 입장에선 잘 안 들림.
+드리블&amp;슛: 생각보다 드리블에서는 공 탄력이 스펀지라 썩 좋지는 않지만 슛감은 실제 농구공이랑 거의 똑같아서 놀랐음. 자유투, 3점슛 라인에서 실제 농구공과 이 사일런트 농구공을 던졌는데 공 재질, 무게만 다를 뿐이지 쏘는 힘이나 각도를 똑같이 쐈는데도 크게 차이는 못 느꼈음. 하지만 확실히 로고샷은 하프라인에서 던지는 거라 사일런트 농구공이 거리가 좀 짧았음. 완전 멀리서 슛 쏘는 거 아니면 자유투, 3점슛은 실제 농구공과 크게 차이가 없었음</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>몽벨 남성 웜테크 트랙자켓_MW3GAMJW20, 095, 블랙(BK)</t>
+          <t>ZEEKR 휴대용 사일런트농구공 무소음농구공 소음 차단 실내 농구 방수 3D 입체, 24cm, 1개</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1. 스타일과 기능성을 갖춘 바람막이
-몽벨 남성 웜테크 트랙자켓은 스타일과 기능성을 동시에 갖춘 훌륭한 바람막이입니다. 이 자켓은 부드러운 기모 소재로 제작되어 체온을 효과적으로 유지하며, 발수 기능이 있어 비 오는 날에도 착용할 수 있습니다. 디자인은 깔끔하고 세련되어 일상복으로도 이질감 없이 잘 어울립니다. 활동성을 고려한 밴딩 처리된 손목과 체형에 맞는 핏 덕분에 편안한 착용감을 제공합니다. 외부 지퍼와 플라켓으로 바람을 최소화해 보온성을 더하며, 몽벨 로고와 와펜이 포인트로 더해져 고급스러운 느낌을 줍니다. 전반적으로 일교차가 큰 날씨에 적합한 자켓으로, 일상생활이나 운동 시 유용하게 활용할 수 있는 아이템입니다.
-2. 완벽한 핏과 따뜻함!
-몽벨 남성 웜테크 트랙자켓은 완벽한 핏과 따뜻함을 동시에 제공하는 아이템입니다. 제가 선택한 M(95) 사이즈는 어깨와 소매 통이 잘 맞아 다소 타이트하게 입는 스타일을 선호하는 저에게 안성맞춤이었습니다. 자켓 형태이지만 활동성이 뛰어나며, 손목 밑단의 밴딩 처리가 편안한 착용감을 제공합니다. 등 부분의 얇은 기모 소재 덕분에 온도를 잘 유지해주고, 발수 기능이 있어 비 오는 날에도 편리합니다. 깔끔한 블랙 색상은 다양한 상황에서 활용 가능하며, 심플한 몽벨 로고가 포인트가 되어 스타일을 더욱 돋보이게 합니다. 전체적으로 디자인과 기능성 모두 만족스러운 자켓입니다.</t>
+          <t>1. 소음 걱정 없는 농구공  
+ZEEKR의 무소음 농구공은 소음 걱정 없이 실내에서도 편리하게 사용할 수 있는 제품입니다. 2층에서 드리블해도 1층에서는 거의 소음이 느껴지지 않아, 이웃의 방해를 최소화할 수 있습니다. 특히 밤 시간대에는 소음이 다소 증폭될 수 있지만, 귀 기울이지 않으면 신경 쓰이지 않을 정도입니다. 드리블 시에는 스펀지 재질로 인해 다소 탄력이 아쉬울 수 있지만, 슛감은 실제 농구공과 유사해 놀라울 정도입니다. 자유투와 3점슛에서 큰 차이를 느끼지 못할 만큼 자연스러운 느낌을 제공합니다. 다만, 하프라인에서의 장거리 슛은 거리가 짧아지는 경향이 있습니다. 일반적인 실내 농구 활동에서 소음 걱정 없이 사용하기에 훌륭한 선택입니다.
+2. 슛감이 뛰어난 사일런트 농구공
+ZEEKR 휴대용 사일런트 농구공은 소음 차단 기능이 뛰어나 실내에서 편안하게 농구 연습을 할 수 있게 해줍니다. 이 농구공은 스펀지 소재로 제작되어 드리블 시 탄력은 다소 떨어지지만, 슛감은 실제 농구공과 거의 유사합니다. 자유투와 3점슛에서 느끼는 감각은 놀라울 정도로 비슷하여, 던지는 힘과 각도만으로도 정확한 조준이 가능합니다. 하프라인에서의 샷에서는 거리감이 약간 부족하지만, 근거리와 중거리 슛에서는 큰 차이를 느끼기 힘듭니다. 실내에서도 조용하게 농구를 즐길 수 있어 특히 2층에서 연습할 때 유용하며, 소음이 불편하지 않은 장점이 있습니다. 이처럼 사일런트 농구공은 뛰어난 슛감을 제공하면서도 소음 걱정 없이 농구를 즐길 수 있도록 도와줍니다.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://link.coupang.com/a/cnENjv</t>
+          <t>https://link.coupang.com/a/cnZHax</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/2448/4ab510406faa34aa4307bac3697ff868cd0cd59d78f8a7369b3b98b89e20.jpg</t>
+          <t>http://thumbnail9.coupangcdn.com/thumbnails/remote/292x292ex/image/retail/images/5830824382606745-71f6e9e8-a15b-4e05-989c-ca4665def0e9.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>남편이 저녁때 조금 쌀쌀할 때 입을만한 옷 필요하다고 구매해달라고 해서 구매하게 되었답니당~^^♡
-검정색 회색 카키색 있는데 회색이 젤 무난해보이더라구요.
-검정색은 많아서~^^ 화면에 제 사진색보다는 밝습니다.
-✅️남편이 많이 마른 편이예요.
-살이 하나도 없어서... 95 입었는데도 넉넉합니다.
-안에도 옷 두벌 정도 입었는데도 헐렁한?^^ 여유있는?^^ 폼입니다.
-옷이 크게 나온건 아니고 정사이즈 같은데.. 95도 넉넉하네요. 살이 없어서 그런듯 합니다.
-살 조금 있으면 95사이즈 사면(정사이즈) 작을듯 해요.
-저는 살 많은 편인 여잔데도 작음. ㅎㅎ (가슴부분.배부분 ㅎㅎ)
-옷은 이쁘고 편하다고는 해요
-안에 핸드폰이나 지갑 넣는 곳이 있어요 .
-깊이도 괜찮고 넓이도 좋네요~~♡♡^^
-여자옷은 이런게 잘 없는데.. 남자들은 가방을 안가지고 다녀서 그런지 옷에 주머니가 여기저기 많은 듯 해요.
-밖에도 가슴쪽에 자크 주머니가 또 있구요.
-손목에 찍찍이로 줄일 수도 있어요^^ 그걸로 소매 조절하는거일텐데..
-왜 있는거죠?^^ 애도 아니고 ㅎㅎ
-손목 부분을 꽉 조일 이유가 있나요?^^
-현장에서 일하거나 추울 땐 필요할것도 같긴해요?
-안에 보면 허리쪽도 크기를 조절할 수 있는 끈도 있더라구요?^^
-이것도 바지도 아니고~~ 왜 있는거죠?^^
-신기한것들이 많네요. ㅎㅎ
-딸내미만 키워봐서 이런 여러기능이 있는 옷을 처음 보내요.
-다 쓸 곳들이 있겠지요?^^
-쿠팡에서 후기작성 하면서 여러가지 배우네요~^^
-새로운것들을 알게 해주셔서 감사드려요~^^
-저녁에 추울 때 입으려고 샀는데..
-날씨가 갑자기 더워져서 못입고 있어요. 좀 더 얇은 바람막이 정도 사야할 날씨가 되어버려서..
-안그래도 더 얇은걸로 사라고 하네요~^^♡
-농에 들어갈 듯 합니다.
-올 가을에 입어야겟어요.. ㅎㅎ
-저는 이 옷이 맘에 듭니다~^^♡♡ 색깔도 이쁘고 주머드들도 많고 자크도 부드럽게 잘 올라가고 자크 주머니라서 물건 분실율도 적을것 같고 실밥 터진곳도 하나도 없고..
-진짜 이쁜옷 잘 산듯 해요.</t>
+          <t>1. 구매 이유
+오랜만에 농구를 다시 시작해 볼까해서 고민하던중
+'스팔딩 TF 골드 농구공 76-857Z ' 을 구매했습니다
+저는 중학교때까지 농구선수, 대학을 농구 전공으로 갔습니다
+아이를 위해 공을 구매한 리뷰가 아닌 직접 사용하기 위해 산 사람으로서
+실제로 사용 후기를 아래에 남깁니다
+2. 제품의 특징
+◎ 재질 : 합성피혁
+◎ 규격 : 7호
+◎ 금박 로고가 있다
+◎ 무게 : 600g
+3. 장점
+◎ 인도어, 아웃도어 만능 공
+- 내부에서 사용하는 공임에도 불가하고 튼튼한 내구성을 가지고 있다
+◎ 농구공의 홈이 다른 농구공에비해 깊은 편에 속하기 떄문에 야외에서 컨트롤하기에 훨씬 좋습니다
+- 스윙, 혹은 한손에 공을 킵핑하기가 쉬움
+- 또한 홈이 깊기 떄문에 다른 공에비해 수명이 깁니다
+- 그립감이 아주 좋음
+◎ 이 제품을 오래 사용하지는 않았지만 그전 오리지날버전 (금박 NBA) 같은 경우 5개월을 넘게
+야외에서 사용했는데도 접지력이 살아있었습니다 (농구공 사용 후 마른 수건으로 닦아줌)
+4. 단점
+◎ 합성피혁이기 때문에 먼지를 잘먹습니다
+◎ 다른 고무 재질 공에 비해 괜찮은 편이지만 스팔딩 골드도 저렴한 편이기 때문에 공의 마감이 조금 떨어집니다
+◎ 개인적인 생각으로 공이 좀 딱딱합니다 (아웃도어용의 특징 / 실내 겸용이지만 딱딱함)
+◎ 공을 컨트롤 했을 떄 개인적으로 좀 뜬다..라는 느낌이 있습니다
+5. 추가 TIP
+◎ 항상 야외에서 사용 후 마른 수건으로 먼지를 닦아주세요 , 농구공의 접지력 유지에 가장 큰 부분을
+차지합니다
+◎ 물로는 닦지 마세요 가볍게 닦는건 상관이 없지만, 적셔가면서 닦을 경우 마르면서 농구공에 변형을 줍니다
+◎ 되도록이면 그냥 들고 다니는게 아닌 농구공 보관 가방에 넣는게 좋습니다
+- 그냥 보관하면 먼지가 붙어서 접지력이 떨어집니다
+◎ ★7호의 규격을 가지고 있습니다, 7호는 중학생부터 사용이 가능한 호수 입니다 ★
+6 만족도 및 총평
+◎ 가격 만족도 : ★★★★★
+◎ 제품 만족도 : ★★★★★
+◎ 배송 만족도 : ★★★★★
+◎ 포장 만족도 :★★★★★
+◎ 재구매 의사 : ★★★★★
+◎ 총평 : 여러 농구공을 사용해보고 연습 및 시합을 밥먹듯이 해봤습니다 나름 정확한 리뷰가 아닐 까 생각됩니다
+제 예상 사용 기간은 2~3년 정도입니다
+무게가 평범한 600g임에도 불구하고 다른 공들에 비해 좀 가볍다고 느껴집니다(포지션 : 포워드)
+하지만 '몰텐' 이나 "윌슨 에볼루션에 비해서는 아주 약간 무겁다고 느껴집니다
+저가 형 고무 재질의 공에 비해 접지력 및 튕기는 맛이 다릅니다
+자금 여유가 있을 경우 STAR의 점보 시리즈 보다는 스팔딩 골드를 추천합니다
+농구공중에서는 저렴한 편에 속하기 떄문에 가성비가 충분히 있다고 생각합니다
+가볍게 중학교 이상의 아이들이 사용하거나 성인(농구에 관심이 있는)중 연습용 아웃도어용으로
+사용하시면 좋겠습니다 (실내 시합용은 역시..윌슨의..에ㅂㄹ..)
+〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓
+지금까지 ●내 돈 내 산● 찐 리뷰였습니다.
+제 리뷰가 여러분의 구매에 도움이 되었으면 좋겠습니다
+리뷰가 맘에 드셨다면 [도움이 돼요] 부탁 드립니다.
+항상 건강하시고 행복하세요 감사합니다~
+〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>맨하트 춘추 아웃도어 자켓 등산복 일상복 작업복 빅사이즈 MHWF-59, 100, 블랙</t>
+          <t>스팔딩 TF 골드 오리지널 농구공 76-264Z, 76-264Z, 7호, 1개</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1. 실용적인 디자인과 편안함
-맨하트 춘추 아웃도어 자켓은 실용적인 디자인과 편안함이 잘 결합된 제품입니다. 남편을 위해 구매한 이 자켓은 다양한 기능을 갖추고 있어 일상복, 작업복 등 여러 상황에서 활용 가능합니다. 특히 손목 부분의 찍찍이로 조절 가능한 디자인은 실용성을 높이며, 헐렁한 핏으로 편안한 착용감을 제공합니다. 여러 개의 주머니 또한 실용적인 요소로, 핸드폰이나 지갑을 안전하게 수납할 수 있어 매우 유용합니다. 허리 조절 끈이 있어 착용자의 체형에 맞출 수 있어 더욱 편리하답니다. 디자인도 세련되어 일상 생활 속에서도 멋스럽게 입을 수 있습니다.
-2. 안전한 주머니와 스타일링
-맨하트 춘추 아웃도어 자켓 MHWF-59는 실용성과 스타일을 동시에 제공합니다. 이 자켓의 가장 큰 장점 중 하나는 안전한 주머니입니다. 내부에는 핸드폰이나 지갑을 넣기에 적합한 주머니가 있어 소지품을 안전하게 보관할 수 있습니다. 또한, 가슴 부분에 자크 주머니가 있어 외부에서도 쉽게 접근할 수 있는 편리함을 제공합니다. 이처럼 다양한 주머니는 노트나 간단한 소지품을 수납하기에 유용하여 야외 활동 시 큰 도움이 됩니다.
-스타일링 면에서도 이 자켓은 매력적입니다. 세련된 색상과 디자인으로 캐주얼한 일상복으로도 손색이 없으며, 다양한 아우터와 쉽게 매치할 수 있습니다. 손목 부분은 찍찍이로 조절 가능하여 원하는 핏에 맞출 수 있어 편안함을 더합니다. 허리 부분의 조절 끈은 몸에 맞춘 실루엣을 만들어 주며, 활동성을 높여줍니다. 전체적으로 맨하트 자켓은 안전하고 실용적이면서도 스타일리시한 선택으로, 다양한 상황에서 활용될 수 있는 멋진 아이템입니다.</t>
+          <t>1. "최고의 가성비 농구공"
+스팔딩 TF 골드 오리지널 농구공 76-264Z는 최고의 가성비를 자랑하는 농구공입니다. 합성피혁으로 제작되어 내구성이 뛰어나고, 인도어와 아웃도어에서도 모두 사용할 수 있습니다. 공의 홈이 깊어 그립감이 뛰어나며, 컨트롤이 용이합니다. 사용자가 느낀 접지력과 튕김의 맛은 저가형 고무 농구공과 비교할 수 있는 차별점입니다. 가격 대비 성능이 훌륭하여 중학생부터 성인까지 모두에게 적합한 선택입니다. 2~3년의 사용 기간을 기대할 수 있으며, 농구에 관심 있는 모든 사용자에게 추천할 만한 제품입니다.
+2. "내구성과 그립감 우수"
+스팔딩 TF 골드 오리지널 농구공은 내구성과 그립감에서 탁월한 성능을 자랑합니다. 합성피혁 재질로 제작되어 있어 인도어와 아웃도어 환경에서 모두 사용할 수 있으며, 뛰어난 내구성 덕분에 오랜 시간 사용해도 상태가 좋습니다. 특히 농구공의 홈이 깊은 편이라 손에 쥐었을 때 매우 안정적인 그립감을 제공합니다. 이로 인해 스윙이나 한 손으로 공을 컨트롤할 때 훨씬 용이하며, 접지력이 유지됩니다. 실제로 이전 모델을 야외에서 5개월 사용했음에도 불구하고 여전히 좋은 성능을 일관되게 발휘했습니다. 따라서 이 농구공은 연습 및 시합에서 매우 만족스러운 경험을 제공합니다.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://link.coupang.com/a/cnENmH</t>
+          <t>https://link.coupang.com/a/cnZHbt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://thumbnail6.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/ba17/a2e84545a45cedc3301d730b78312e3561a9c9dfef8b83e6ac76493498c6.JPG</t>
+          <t>http://thumbnail8.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/371d/0e0b7abb00f8d6e17ec3542a4cdf89b7c3ec410789a630a1526f6291606c.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>가격대비 너무 예쁘고 잘 만들어졌어요.
-초등 아들이 키가 170이 다돼가서 예전옷들은 맞지 않고,
-이제 막 아침저녁으로 쌀쌀해져서 좀더 쌀쌀해지면 딱이겠다싶어서 3XL로 샀어요.
-소매가 좀 길긴한데 품은 넉넉하게 맞아요.
-원래 팔이 긴편인데도 소매가 긴거보면 성인용이라서 그런듯 합니다. (이건 후기적다 생각남)
-아이는 맘에 든다는데 좀 크면 내년에도 입고 좋다는데 다시한번 입혀보고 결정해야할듯.
-어쨋든 바느질 꼼꼼하고 모자 탈부착도 세련되게 만들어져 있고,
-주머니도 지퍼가 있는데,
-모양도 깔끔하고 예쁘게 라인처리된게 맘에 드네요.</t>
+          <t>STAR 스타 농구공 점보루키 7호 BB6067, 점보루키 + SQUALO 공가방 &amp;
+펌프 세트를 구매했는데 만족스러워요
+날도 좀 풀렸겠다 집앞에 운동장에서 운동 겸 남자친구랑 농구할려고 구매했어요
+농구공에 펌프와 공가방까지 세트라 가격대도 합리적인 거 같아요
+STAR 스타 농구공 점보루키 7호 BB6067
+디자인부터 너무 예쁘고 고급스러워요
+농구공에 대한 기본적인 기대감을 넘어서 손에 쥐었을 때 그립감이 좋아요
+겉 표면이 미끄럽지 않아서 드리블할 때나 패스를 할 때 정말 편하고
+안정감 있게 다룰 수 있어요
+색상도 화려하면서도 세련돼서 시각적으로도 만족스럽고
+게임 중에 볼 때마다 눈에 띄는 느낌이랄까?
+그리고 공을 사용해본 결과 충격 흡수력이 뛰어나서 바닥에 튕길 때도
+소리가 너무 거슬리지 않아요
+실내에서 사용해도 불편함이 없고 내구성도 좋아 보여서
+오랜 시간 사용할 수 있을 것 같아요
+근데 일반적인 농구공 같은 건 줄 알았는데(좀 단단하고 큰거)
+고무공이라 살짝 아쉬워요 크기도 일반 농구공보다 작음
+대신 여자들이 던지고 하기엔 편해서 좋았어요
+점보루키와 SQUALO 공가방 + 펌프 세트도 정말 유용하고 실용적이에요
+공가방은 공을 안전하게 보관할 수 있어서 너무 좋고
+디자인도 간단하면서 멋져서 어디에 두어도 전혀 부담이 없어요
+공을 가지고 다닐 때 너무 튼튼해서 찢어질 염려도 없고
+가방 안에 펌프도 들어 있어서 언제든지 공의 바람을 체크하고 채울 수 있어요
+농구공을 자주 사용하는 사람에게는 펌프가 포함된 세트가 정말 실용적!!
+펌프도 작고 가벼워서 휴대하기 편리하고
+바람 넣는 것도 굉장히 쉬워서 이 점이 매우 마음에 들었어요
+평소 공에 바람을 넣는 게 번거로운데
+이 펌프는 사용하기 편하고 빠르게 공을 셋팅할 수 있어 좋았어요
+세트 구성 자체가 너무 합리적이어서 한 번에 필요한
+모든 것을 준비할 수 있다는 점이 좋았어요
+농구공, 펌프, 공가방이 모두 포함되어 있어서 따로 구매할 필요가 없고
+가격도 꽤 합리적인 편이라 만족했어요
+♡도움이 되셨다면 도움이 돼요 버튼 눌러주시면 감사하겠습니다♡</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>남성 바람막이 아웃도어 등산복 자켓, 라이트 그레이, 4XL</t>
+          <t>STAR 스타 농구공 점보루키7호 BB6067, 점보루키 + SQU..., 1개</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1. 세련된 디자인과 편안함  
-이 남성 바람막이 아웃도어 자켓은 세련된 디자인과 편안함을 동시에 겸비한 제품입니다. 라이트 그레이 색상은 깔끔하고 모던한 느낌을 주며, 다양한 액세서리와도 잘 어울립니다. 특히, 바느질이 꼼꼼하게 처리되어 있어 내구성이 뛰어나며, 세련된 탈부착형 모자는 스타일을 더욱 돋보이게 합니다. 옷의 품이 넉넉하게 맞아 활동할 때 편안함을 제공하고, 긴 소매는 팔이 긴 사용자에게도 적절한 길이를 유지해 주어 더욱 실용적입니다. 또한, 지퍼가 있는 주머니는 소지품을 안전하게 보관할 수 있어 아웃도어 활동에 적합합니다. 전반적으로 이 자켓은 주말 등산이나 일상에서 모두 활용할 수 있는 멋진 선택이 될 것입니다.
-2. 넉넉한 사이즈, 활용도 높음  
-이 남성 바람막이 아웃도어 자켓은 넉넉한 사이즈로 다양한 체형에 잘 맞습니다. 특히, 초등학생 아들이 성장 중이라 담임교사와 함께 선택한 3XL 사이즈는 여유 있는 핏으로 매우 편안합니다. 팔 길이가 긴 편이라 소매가 길게 나왔지만, 그렇다고 너무 불편하지 않아 활동성이 뛰어납니다. 라이트 그레이 색상은 시각적으로 깔끔하고 세련된 느낌을 주며, 활용도가 높아 일상적인 아웃도어 활동부터 간편한 산행까지 잘 어울립니다. 바느질이 꼼꼼하고 탈부착 가능한 모자, 지퍼가 있는 주머니는 실용성을 추가해 주어 실제 사용 시에도 유용합니다. 때문에 내년에도 입을 수 있을 만큼 넉넉하여, 장기적으로도 활용 가능성이 높습니다. 이런 세심한 디자인과 기능 덕분에 만족스러운 구매로 기억될 것 같습니다.</t>
+          <t>1. "완벽한 농구공 세트"
+스타 농구공 점보루키 7호 BB6067 세트는 농구를 즐기는 이들에게 완벽한 선택입니다. 세트에는 농구공, SQUALO 공가방, 펌프가 포함되어 있어 운동에 필요한 모든 것을 한 번에 갖출 수 있습니다. 농구공은 디자인이 세련되고 그립감이 뛰어나며, 미끄럽지 않은 표면 덕분에 드리블과 패스가 용이합니다. 내구성이 좋고 충격 흡수력이 뛰어나 실내외에서 사용하기에도 적합합니다. 가방은 튼튼하고 모던한 디자인으로 안전하게 보관할 수 있게 도와주며, 펌프는 작고 휴대가 간편해 언제든지 바람을 체크할 수 있어 매우 실용적입니다. 합리적인 가격으로 모든 필수 아이템을 포함한 이 세트는 농구 애호가들에게 많은 만족을 줄 것입니다.
+2. "편리한 펌프와 가방 포함"
+STAR 스타 농구공 점보루키 7호 BB6067은 편리한 펌프와 공가방이 포함되어 있어 실용성이 뛰어납니다. 공가방은 농구공을 안전하게 보관할 수 있도록 디자인되어 있으며, 튼튼한 소재로 만들어져 찢어질 걱정 없이 사용할 수 있습니다. 가방의 간결한 디자인은 어디에 두어도 부담이 없고, 이동 시에도 편리합니다. 또한, 포함된 펌프는 작고 가벼워 휴대하기 용이하며, 바람 넣는 과정이 매우 간편해 사용자에게 큰 만족을 줍니다. 이처럼 세트 구성은 모든 필요한 요소를 한 번에 제공하여, 농구를 즐기는 사람들에게 매우 유용한 선택이 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://link.coupang.com/a/cnZHfv</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>http://thumbnail10.coupangcdn.com/thumbnails/remote/292x292ex/image/vendor_inventory/656a/6c4eabf1cb6be6cc9fee4fd71b564840bfea7a7e3134e8d81ae3fd22819b.jpg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>#농구공 #스타스톤 #농구 #펌프세트
+제품명 : 스타스톤 농구공 점보 루키 투센 볼펌프 가방세트
+기존에 오랫동안 사용하던 요 갈색 스타스톤 농구공
+바람이 빠져서 다시 주입~~~
+고무가 새는지 바람 구멍이 있는지
+한두번 던지니 공이 튀다 말더라구요,
+농구공과 농구공가방, 펌프세트까지 한번에 구성된 요 농구공 세트를
+데려왔습니다.
+펌프질은 역시 수동이라 한참이 걸리지만
+다 넣고나니 농구 즐기는 아이들이 좋아하네요,
+배송은 쾌속으로
+공은 바람빠진 접어진 상태로
+배송됩니다.
+이게 공인가 싶었는데 바람없이 왔드라구요,
+통통 잘튀며 농구 잘하고 놀고 있습니다.
+농구공은 역시 스타스톤 같아요,
+구매하시는 분께 도움이 되시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>스타 농구공 점보루키7호 BB6067 + 투센 볼펌프 + 투센 볼가방, 7호, 600~650g, 1세트</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1. 스타스톤 농구공 세트  
+스타스톤 농구공 점보 루키 7호 BB6067 세트는 농구를 사랑하는 아이들에게 최적의 선택입니다. 이 세트에는 농구공, 투센 볼펌프, 그리고 볼가방이 포함되어 있어 편리하게 사용할 수 있습니다. 농구공은 600~650g의 무게로 조절되어 있으며, 바람이 빠진 상태로 배송되지만 펌프를 이용해 쉽게 주입할 수 있습니다. 수동 펌프 사용이 다소 번거로울 수 있으나, 바람이 제대로 주입된 후에는 그립감과 튀김이 뛰어나 훌륭한 농구 경험을 제공합니다. 배송 또한 신속하게 진행되어 사용하기 전 번거로움이 없습니다. 스타스톤 농구공은 언제나 믿을 수 있는 품질을 자랑하며, 농구를 즐기는 아이들에게 큰 기쁨을 선사합니다.
+2. 편리한 펌프와 가방 포함
+스타스톤 농구공 점보 루키 세트는 편리한 펌프와 가방이 포함되어 있어 한층 더 실용적인 선택입니다. 투센 볼펌프는 수동으로 작동하지만, 농구공을 원하는 압력으로 쉽게 주입할 수 있어 언제든지 농구를 즐길 수 있게 해줍니다. 덕분에 바람이 빠진 농구공도 금방 준비할 수 있죠. 또한, 농구공을 보관하고 이동하는 데 유용한 볼가방이 함께 제공되어, 외부 활동이나 연습 시 편리함을 더해줍니다. 이러한 구성으로 언제 어디서나 아이들이 농구를 즐길 수 있는 최적의 환경을 제공합니다. 빠른 배송 덕분에 기다림 없이 바로 사용할 수 있다는 점도 큰 장점입니다.</t>
         </is>
       </c>
     </row>
